--- a/Capstone Project/Monika/Repair Costs.xlsx
+++ b/Capstone Project/Monika/Repair Costs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mszuc\Desktop\Capstone-Project-Data-Modeling-and-PowerBI\Capstone Project\Monika\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04ED0E80-3D32-4269-A12A-0C2E07965E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC10E722-1698-4F78-88E6-122E1919EC16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{ED117939-1D2E-4498-B130-96B64592D033}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="79">
   <si>
     <t>Visual System</t>
   </si>
@@ -161,6 +161,114 @@
   </si>
   <si>
     <t>Number of Cards Sold</t>
+  </si>
+  <si>
+    <t>ModYear</t>
+  </si>
+  <si>
+    <t>M1Y1</t>
+  </si>
+  <si>
+    <t>M2Y1</t>
+  </si>
+  <si>
+    <t>M6Y1</t>
+  </si>
+  <si>
+    <t>M5Y1</t>
+  </si>
+  <si>
+    <t>M1Y2</t>
+  </si>
+  <si>
+    <t>M1Y3</t>
+  </si>
+  <si>
+    <t>M1Y4</t>
+  </si>
+  <si>
+    <t>M1Y5</t>
+  </si>
+  <si>
+    <t>M3Y1</t>
+  </si>
+  <si>
+    <t>M4Y1</t>
+  </si>
+  <si>
+    <t>M5Y4</t>
+  </si>
+  <si>
+    <t>M3Y2</t>
+  </si>
+  <si>
+    <t>M7Y1</t>
+  </si>
+  <si>
+    <t>M2Y2</t>
+  </si>
+  <si>
+    <t>M5Y2</t>
+  </si>
+  <si>
+    <t>M4Y2</t>
+  </si>
+  <si>
+    <t>M6Y2</t>
+  </si>
+  <si>
+    <t>M7Y2</t>
+  </si>
+  <si>
+    <t>M2Y4</t>
+  </si>
+  <si>
+    <t>M2Y3</t>
+  </si>
+  <si>
+    <t>M3Y3</t>
+  </si>
+  <si>
+    <t>M4Y3</t>
+  </si>
+  <si>
+    <t>M5Y3</t>
+  </si>
+  <si>
+    <t>M6Y3</t>
+  </si>
+  <si>
+    <t>M7Y3</t>
+  </si>
+  <si>
+    <t>M3Y4</t>
+  </si>
+  <si>
+    <t>M2Y5</t>
+  </si>
+  <si>
+    <t>M4Y4</t>
+  </si>
+  <si>
+    <t>M6Y4</t>
+  </si>
+  <si>
+    <t>M7Y4</t>
+  </si>
+  <si>
+    <t>M3Y5</t>
+  </si>
+  <si>
+    <t>M4Y5</t>
+  </si>
+  <si>
+    <t>M5Y5</t>
+  </si>
+  <si>
+    <t>M6Y5</t>
+  </si>
+  <si>
+    <t>M7Y5</t>
   </si>
 </sst>
 </file>
@@ -659,59 +767,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6105DF2C-7430-48BF-A45E-C623D48AA4A1}">
-  <dimension ref="A2:CK66"/>
+  <dimension ref="A2:CL66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="30.86328125" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.796875" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="7" width="16.265625" customWidth="1"/>
-    <col min="8" max="8" width="16.9296875" customWidth="1"/>
-    <col min="9" max="9" width="18.9296875" customWidth="1"/>
-    <col min="10" max="10" width="18.796875" customWidth="1"/>
-    <col min="11" max="11" width="17.1328125" customWidth="1"/>
-    <col min="12" max="12" width="19.1328125" customWidth="1"/>
-    <col min="13" max="13" width="21.6640625" customWidth="1"/>
-    <col min="14" max="14" width="18.33203125" customWidth="1"/>
-    <col min="15" max="15" width="16.9296875" customWidth="1"/>
-    <col min="16" max="16" width="18.265625" customWidth="1"/>
-    <col min="17" max="17" width="16.53125" customWidth="1"/>
-    <col min="18" max="18" width="18.06640625" customWidth="1"/>
-    <col min="19" max="19" width="19.19921875" customWidth="1"/>
-    <col min="20" max="20" width="18.9296875" customWidth="1"/>
-    <col min="21" max="21" width="12.73046875" customWidth="1"/>
-    <col min="22" max="22" width="18.3984375" customWidth="1"/>
-    <col min="23" max="23" width="21.33203125" customWidth="1"/>
-    <col min="24" max="24" width="19.73046875" customWidth="1"/>
-    <col min="25" max="25" width="22.06640625" customWidth="1"/>
-    <col min="26" max="26" width="19.06640625" customWidth="1"/>
-    <col min="27" max="27" width="18.796875" customWidth="1"/>
-    <col min="28" max="28" width="23.265625" customWidth="1"/>
-    <col min="29" max="29" width="22.59765625" customWidth="1"/>
-    <col min="30" max="31" width="19.796875" customWidth="1"/>
-    <col min="32" max="32" width="20.33203125" customWidth="1"/>
-    <col min="33" max="33" width="22.33203125" customWidth="1"/>
-    <col min="34" max="34" width="21.9296875" customWidth="1"/>
-    <col min="35" max="35" width="15.796875" customWidth="1"/>
-    <col min="36" max="36" width="18.06640625" customWidth="1"/>
+    <col min="2" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.796875" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="8" width="16.265625" customWidth="1"/>
+    <col min="9" max="9" width="16.9296875" customWidth="1"/>
+    <col min="10" max="10" width="18.9296875" customWidth="1"/>
+    <col min="11" max="11" width="18.796875" customWidth="1"/>
+    <col min="12" max="12" width="17.1328125" customWidth="1"/>
+    <col min="13" max="13" width="19.1328125" customWidth="1"/>
+    <col min="14" max="14" width="21.6640625" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" customWidth="1"/>
+    <col min="16" max="16" width="16.9296875" customWidth="1"/>
+    <col min="17" max="17" width="18.265625" customWidth="1"/>
+    <col min="18" max="18" width="16.53125" customWidth="1"/>
+    <col min="19" max="19" width="18.06640625" customWidth="1"/>
+    <col min="20" max="20" width="19.19921875" customWidth="1"/>
+    <col min="21" max="21" width="18.9296875" customWidth="1"/>
+    <col min="22" max="22" width="12.73046875" customWidth="1"/>
+    <col min="23" max="23" width="18.3984375" customWidth="1"/>
+    <col min="24" max="24" width="21.33203125" customWidth="1"/>
+    <col min="25" max="25" width="19.73046875" customWidth="1"/>
+    <col min="26" max="26" width="22.06640625" customWidth="1"/>
+    <col min="27" max="27" width="19.06640625" customWidth="1"/>
+    <col min="28" max="28" width="18.796875" customWidth="1"/>
+    <col min="29" max="29" width="23.265625" customWidth="1"/>
+    <col min="30" max="30" width="22.59765625" customWidth="1"/>
+    <col min="31" max="32" width="19.796875" customWidth="1"/>
+    <col min="33" max="33" width="20.33203125" customWidth="1"/>
+    <col min="34" max="34" width="22.33203125" customWidth="1"/>
+    <col min="35" max="35" width="21.9296875" customWidth="1"/>
+    <col min="36" max="36" width="15.796875" customWidth="1"/>
+    <col min="37" max="37" width="18.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24" ht="38.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:25" ht="38.25" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B2" s="4"/>
-    </row>
-    <row r="3" spans="1:24" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="8"/>
       <c r="B3" s="4"/>
-      <c r="L3" s="5"/>
+      <c r="C3" s="4"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
@@ -724,12 +833,12 @@
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
-    </row>
-    <row r="4" spans="1:24" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y3" s="5"/>
+    </row>
+    <row r="4" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
@@ -740,48 +849,49 @@
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
-    </row>
-    <row r="5" spans="1:24" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Y4" s="5"/>
+    </row>
+    <row r="5" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="G5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="H5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="I5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="J5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="K5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="L5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="M5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="N5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -792,48 +902,49 @@
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
-    </row>
-    <row r="6" spans="1:24" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Y5" s="5"/>
+    </row>
+    <row r="6" spans="1:25" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="10">
         <v>600</v>
       </c>
       <c r="B6" s="10">
         <v>1200</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10">
         <v>200</v>
       </c>
-      <c r="D6" s="10">
+      <c r="E6" s="10">
         <v>80</v>
       </c>
-      <c r="E6" s="10">
+      <c r="F6" s="10">
         <v>900</v>
       </c>
-      <c r="F6" s="10">
-        <v>760</v>
-      </c>
       <c r="G6" s="10">
+        <v>700</v>
+      </c>
+      <c r="H6" s="10">
         <v>1100</v>
       </c>
-      <c r="H6" s="10">
+      <c r="I6" s="10">
         <v>300</v>
       </c>
-      <c r="I6" s="10">
+      <c r="J6" s="10">
         <v>800</v>
       </c>
-      <c r="J6" s="10">
+      <c r="K6" s="10">
         <v>270</v>
       </c>
-      <c r="K6" s="10">
+      <c r="L6" s="10">
         <v>440</v>
       </c>
-      <c r="L6" s="10">
+      <c r="M6" s="10">
         <v>200</v>
       </c>
-      <c r="M6" s="10">
+      <c r="N6" s="10">
         <v>100</v>
       </c>
-      <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
@@ -844,8 +955,9 @@
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
-    </row>
-    <row r="7" spans="1:24" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Y6" s="5"/>
+    </row>
+    <row r="7" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -859,7 +971,7 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
-      <c r="N7" s="5"/>
+      <c r="N7" s="12"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
@@ -870,8 +982,9 @@
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
-    </row>
-    <row r="8" spans="1:24" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y7" s="5"/>
+    </row>
+    <row r="8" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="15" t="s">
         <v>33</v>
       </c>
@@ -887,7 +1000,7 @@
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
-      <c r="N8" s="5"/>
+      <c r="N8" s="12"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
@@ -898,24 +1011,25 @@
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
-    </row>
-    <row r="9" spans="1:24" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Y8" s="5"/>
+    </row>
+    <row r="9" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="14">
         <v>2019</v>
       </c>
       <c r="B9" s="14">
         <v>2018</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="14"/>
+      <c r="D9" s="14">
         <v>2017</v>
       </c>
-      <c r="D9" s="14">
+      <c r="E9" s="14">
         <v>2016</v>
       </c>
-      <c r="E9" s="14">
+      <c r="F9" s="14">
         <v>2015</v>
       </c>
-      <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
@@ -923,7 +1037,7 @@
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
-      <c r="N9" s="5"/>
+      <c r="N9" s="13"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
@@ -934,20 +1048,21 @@
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
-    </row>
-    <row r="10" spans="1:24" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Y9" s="5"/>
+    </row>
+    <row r="10" spans="1:25" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="16">
         <v>25</v>
       </c>
       <c r="B10" s="16">
         <v>5010000</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="16"/>
+      <c r="D10" s="16">
         <v>4920000</v>
       </c>
-      <c r="D10" s="16"/>
       <c r="E10" s="16"/>
-      <c r="F10" s="13"/>
+      <c r="F10" s="16"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
@@ -955,7 +1070,7 @@
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
-      <c r="N10" s="5"/>
+      <c r="N10" s="13"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
@@ -966,15 +1081,16 @@
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
-    </row>
-    <row r="11" spans="1:24" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y10" s="5"/>
+    </row>
+    <row r="11" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="21" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="22">
         <v>0.6</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
@@ -985,7 +1101,7 @@
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
-      <c r="N11" s="5"/>
+      <c r="N11" s="13"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
@@ -996,15 +1112,16 @@
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
-    </row>
-    <row r="12" spans="1:24" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y11" s="5"/>
+    </row>
+    <row r="12" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="11" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="23">
         <v>0.5</v>
       </c>
-      <c r="C12" s="12"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
@@ -1015,22 +1132,23 @@
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
-      <c r="N12" s="5"/>
+      <c r="N12" s="12"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
-    </row>
-    <row r="13" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="U12" s="5"/>
+    </row>
+    <row r="13" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B13" s="23">
         <v>0.4</v>
       </c>
-      <c r="L13" s="5"/>
+      <c r="C13" s="23"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
@@ -1039,36 +1157,38 @@
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="U13" s="5"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A15" s="26"/>
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="26"/>
+      <c r="E15" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="26"/>
       <c r="F15" s="26"/>
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="26" t="s">
+      <c r="I15" s="26"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="K15" s="26"/>
       <c r="L15" s="26"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="26" t="s">
+      <c r="M15" s="26"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="O15" s="26"/>
       <c r="P15" s="26"/>
       <c r="Q15" s="26"/>
       <c r="R15" s="26"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="28"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="S15" s="26"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="28"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A16" s="26" t="s">
         <v>28</v>
       </c>
@@ -1076,437 +1196,461 @@
         <v>42</v>
       </c>
       <c r="C16" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="E16" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="F16" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="G16" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="26" t="s">
+      <c r="H16" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="26" t="s">
+      <c r="I16" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="I16" s="27" t="s">
+      <c r="J16" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="J16" s="26" t="s">
+      <c r="K16" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="K16" s="26" t="s">
+      <c r="L16" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="L16" s="26" t="s">
+      <c r="M16" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="M16" s="27" t="s">
+      <c r="N16" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="N16" s="26" t="s">
+      <c r="O16" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="O16" s="26" t="s">
+      <c r="P16" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="P16" s="26" t="s">
+      <c r="Q16" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="Q16" s="26" t="s">
+      <c r="R16" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="R16" s="26" t="s">
+      <c r="S16" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="S16" s="27" t="s">
+      <c r="T16" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="T16" s="28" t="s">
+      <c r="U16" s="28" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A17" s="17">
         <v>2019</v>
       </c>
       <c r="B17" s="7">
         <v>45098</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="29"/>
       <c r="E17" s="29"/>
       <c r="F17" s="29"/>
       <c r="G17" s="29"/>
-      <c r="H17" s="29">
-        <f>$M6 * (B17*B11)</f>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29">
+        <f>$N6 * (B17*B11)</f>
         <v>2705880</v>
       </c>
-      <c r="I17" s="24">
-        <f>SUM(D17:H17)</f>
+      <c r="J17" s="24">
+        <f>SUM(E17:I17)</f>
         <v>2705880</v>
       </c>
-      <c r="J17" s="29"/>
-      <c r="K17" s="5">
-        <f>$I6 * (B17*B12)</f>
+      <c r="K17" s="29"/>
+      <c r="L17" s="5">
+        <f>$J6 * (B17*B12)</f>
         <v>18039200</v>
       </c>
-      <c r="L17" s="5"/>
-      <c r="M17" s="24">
-        <f t="shared" ref="M17:M23" si="0">SUM(J17:L17)</f>
+      <c r="M17" s="5"/>
+      <c r="N17" s="24">
+        <f t="shared" ref="N17:N23" si="0">SUM(K17:M17)</f>
         <v>18039200</v>
       </c>
-      <c r="N17" s="5">
+      <c r="O17" s="5">
         <f>$A6 * (B17*B13)</f>
         <v>10823520</v>
       </c>
-      <c r="O17" s="5"/>
       <c r="P17" s="5"/>
-      <c r="Q17" s="5">
-        <f>$G6 * (B17*B13)</f>
-        <v>19843120</v>
-      </c>
+      <c r="Q17" s="5"/>
       <c r="R17" s="5">
         <f>$H6 * (B17*B13)</f>
+        <v>19843120</v>
+      </c>
+      <c r="S17" s="5">
+        <f>$I6 * (B17*B13)</f>
         <v>5411760</v>
       </c>
-      <c r="S17" s="24">
-        <f t="shared" ref="S17:S23" si="1">SUM(N17:R17)</f>
+      <c r="T17" s="24">
+        <f t="shared" ref="T17:T23" si="1">SUM(O17:S17)</f>
         <v>36078400</v>
       </c>
-      <c r="T17" s="25">
-        <f>SUM(I17+M17)</f>
+      <c r="U17" s="25">
+        <f>SUM(J17+N17)</f>
         <v>20745080</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A18" s="17"/>
       <c r="B18" s="7">
         <v>38970</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29">
-        <f>$C6 * (B18*B11)</f>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29">
+        <f>$D6 * (B18*B11)</f>
         <v>4676400</v>
       </c>
-      <c r="F18" s="29"/>
       <c r="G18" s="29"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="24">
-        <f t="shared" ref="I18:I39" si="2">SUM(D18:H18)</f>
+      <c r="H18" s="29"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="24">
+        <f t="shared" ref="J18:J39" si="2">SUM(E18:I18)</f>
         <v>4676400</v>
       </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5">
-        <f>$I6 * (B18*B12)</f>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5">
+        <f>$J6 * (B18*B12)</f>
         <v>15588000</v>
       </c>
-      <c r="L18" s="5"/>
-      <c r="M18" s="24">
+      <c r="M18" s="5"/>
+      <c r="N18" s="24">
         <f t="shared" si="0"/>
         <v>15588000</v>
       </c>
-      <c r="N18" s="5"/>
       <c r="O18" s="5"/>
-      <c r="P18" s="5">
-        <f>$F6 * (B18*B13)</f>
-        <v>11846880</v>
-      </c>
-      <c r="Q18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5">
+        <f>$G6 * (B18*B13)</f>
+        <v>10911600</v>
+      </c>
       <c r="R18" s="5"/>
-      <c r="S18" s="24">
+      <c r="S18" s="5"/>
+      <c r="T18" s="24">
         <f t="shared" si="1"/>
-        <v>11846880</v>
-      </c>
-      <c r="T18" s="25">
-        <f t="shared" ref="T18:T22" si="3">SUM(I18+M18)</f>
+        <v>10911600</v>
+      </c>
+      <c r="U18" s="25">
+        <f t="shared" ref="U18:U22" si="3">SUM(J18+N18)</f>
         <v>20264400</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A19" s="17"/>
       <c r="B19" s="7">
         <v>35825</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="29"/>
       <c r="E19" s="29"/>
       <c r="F19" s="29"/>
-      <c r="G19" s="29">
-        <f>$L6 * (B19*B11)</f>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29">
+        <f>$M6 * (B19*B11)</f>
         <v>4299000</v>
       </c>
-      <c r="H19" s="29"/>
-      <c r="I19" s="24">
+      <c r="I19" s="29"/>
+      <c r="J19" s="24">
         <f t="shared" si="2"/>
         <v>4299000</v>
       </c>
-      <c r="J19" s="5">
-        <f>$D6 * (B19*B12)</f>
+      <c r="K19" s="5">
+        <f>$E6 * (B19*B12)</f>
         <v>1433000</v>
       </c>
-      <c r="K19" s="5"/>
       <c r="L19" s="5"/>
-      <c r="M19" s="24">
+      <c r="M19" s="5"/>
+      <c r="N19" s="24">
         <f t="shared" si="0"/>
         <v>1433000</v>
       </c>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5">
-        <f>$E6 * (B19*B13)</f>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5">
+        <f>$F6 * (B19*B13)</f>
         <v>12897000</v>
       </c>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5">
-        <f>$G6 * (B19*B13)</f>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5">
+        <f>$H6 * (B19*B13)</f>
         <v>15763000</v>
       </c>
-      <c r="R19" s="5"/>
-      <c r="S19" s="24">
+      <c r="S19" s="5"/>
+      <c r="T19" s="24">
         <f t="shared" si="1"/>
         <v>28660000</v>
       </c>
-      <c r="T19" s="25">
+      <c r="U19" s="25">
         <f t="shared" si="3"/>
         <v>5732000</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A20" s="17"/>
       <c r="B20" s="7">
         <v>24213</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29">
-        <f>$C6 * (B20*B11)</f>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29">
+        <f>$D6 * (B20*B11)</f>
         <v>2905560</v>
       </c>
-      <c r="F20" s="29">
-        <f>$K6 * (B20*B11)</f>
+      <c r="G20" s="29">
+        <f>$L6 * (B20*B11)</f>
         <v>6392232</v>
       </c>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29">
-        <f>$M6 * (B20*B11)</f>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29">
+        <f>$N6 * (B20*B11)</f>
         <v>1452780</v>
       </c>
-      <c r="I20" s="24">
+      <c r="J20" s="24">
         <f t="shared" si="2"/>
         <v>10750572</v>
       </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5">
-        <f>$I6 * (B20*B12)</f>
-        <v>9685200</v>
-      </c>
+      <c r="K20" s="5"/>
       <c r="L20" s="5">
         <f>$J6 * (B20*B12)</f>
+        <v>9685200</v>
+      </c>
+      <c r="M20" s="5">
+        <f>$K6 * (B20*B12)</f>
         <v>3268755</v>
       </c>
-      <c r="M20" s="24">
+      <c r="N20" s="24">
         <f t="shared" si="0"/>
         <v>12953955</v>
       </c>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5">
-        <f>$E6 * (B20*B13)</f>
-        <v>8716680</v>
-      </c>
+      <c r="O20" s="5"/>
       <c r="P20" s="5">
         <f>$F6 * (B20*B13)</f>
-        <v>7360752.0000000009</v>
-      </c>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5">
-        <f>$H6 * (B20*B13)</f>
+        <v>8716680</v>
+      </c>
+      <c r="Q20" s="5">
+        <f>$G6 * (B20*B13)</f>
+        <v>6779640.0000000009</v>
+      </c>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5">
+        <f>$I6 * (B20*B13)</f>
         <v>2905560</v>
       </c>
-      <c r="S20" s="24">
+      <c r="T20" s="24">
         <f t="shared" si="1"/>
-        <v>18982992</v>
-      </c>
-      <c r="T20" s="25">
+        <v>18401880</v>
+      </c>
+      <c r="U20" s="25">
         <f t="shared" si="3"/>
         <v>23704527</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A21" s="17"/>
       <c r="B21" s="7">
         <v>26345</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="29">
+      <c r="E21" s="29">
         <f>$B6 * (B21*B11)</f>
         <v>18968400</v>
       </c>
-      <c r="E21" s="29">
-        <f>$C6 * (B21*B11)</f>
+      <c r="F21" s="29">
+        <f>$D6 * (B21*B11)</f>
         <v>3161400</v>
       </c>
-      <c r="F21" s="29"/>
       <c r="G21" s="29"/>
-      <c r="H21" s="29">
-        <f>$M6 * (B21*B11)</f>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29">
+        <f>$N6 * (B21*B11)</f>
         <v>1580700</v>
       </c>
-      <c r="I21" s="24">
+      <c r="J21" s="24">
         <f t="shared" si="2"/>
         <v>23710500</v>
       </c>
-      <c r="J21" s="5">
-        <f>$D6 * (B21*B12)</f>
+      <c r="K21" s="5">
+        <f>$E6 * (B21*B12)</f>
         <v>1053800</v>
       </c>
-      <c r="K21" s="5">
-        <f>$I6 * (B21*B12)</f>
+      <c r="L21" s="5">
+        <f>$J6 * (B21*B12)</f>
         <v>10538000</v>
       </c>
-      <c r="L21" s="5"/>
-      <c r="M21" s="24">
+      <c r="M21" s="5"/>
+      <c r="N21" s="24">
         <f t="shared" si="0"/>
         <v>11591800</v>
       </c>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5">
-        <f>$E6 * (B21*B13)</f>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5">
+        <f>$F6 * (B21*B13)</f>
         <v>9484200</v>
       </c>
-      <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
-      <c r="S21" s="24">
+      <c r="S21" s="5"/>
+      <c r="T21" s="24">
         <f t="shared" si="1"/>
         <v>9484200</v>
       </c>
-      <c r="T21" s="25">
+      <c r="U21" s="25">
         <f t="shared" si="3"/>
         <v>35302300</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A22" s="17"/>
       <c r="B22" s="7">
         <v>25968</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="29"/>
       <c r="E22" s="29"/>
       <c r="F22" s="29"/>
-      <c r="G22" s="29">
-        <f>$L6 * (B22*B11)</f>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29">
+        <f>$M6 * (B22*B11)</f>
         <v>3116160</v>
       </c>
-      <c r="H22" s="29"/>
-      <c r="I22" s="24">
+      <c r="I22" s="29"/>
+      <c r="J22" s="24">
         <f t="shared" si="2"/>
         <v>3116160</v>
       </c>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5">
-        <f>$I6 * (B22*B12)</f>
-        <v>10387200</v>
-      </c>
+      <c r="K22" s="5"/>
       <c r="L22" s="5">
         <f>$J6 * (B22*B12)</f>
+        <v>10387200</v>
+      </c>
+      <c r="M22" s="5">
+        <f>$K6 * (B22*B12)</f>
         <v>3505680</v>
       </c>
-      <c r="M22" s="24">
+      <c r="N22" s="24">
         <f t="shared" si="0"/>
         <v>13892880</v>
       </c>
-      <c r="N22" s="5">
+      <c r="O22" s="5">
         <f>$A6 * (B22*B13)</f>
         <v>6232320</v>
       </c>
-      <c r="O22" s="5"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
-      <c r="S22" s="24">
+      <c r="S22" s="5"/>
+      <c r="T22" s="24">
         <f t="shared" si="1"/>
         <v>6232320</v>
       </c>
-      <c r="T22" s="25">
+      <c r="U22" s="25">
         <f t="shared" si="3"/>
         <v>17009040</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A23" s="17"/>
       <c r="B23" s="7">
         <v>28322</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29">
-        <f>$C6 * (B23*B11)</f>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29">
+        <f>$D6 * (B23*B11)</f>
         <v>3398640</v>
       </c>
-      <c r="F23" s="29"/>
       <c r="G23" s="29"/>
-      <c r="H23" s="29">
-        <f>$M6 * (B23*B11)</f>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29">
+        <f>$N6 * (B23*B11)</f>
         <v>1699320</v>
       </c>
-      <c r="I23" s="24">
-        <f>SUM(D23:H23)</f>
+      <c r="J23" s="24">
+        <f>SUM(E23:I23)</f>
         <v>5097960</v>
       </c>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5">
-        <f>$I6 * (B23*B12)</f>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5">
+        <f>$J6 * (B23*B12)</f>
         <v>11328800</v>
       </c>
-      <c r="L23" s="5"/>
-      <c r="M23" s="24">
+      <c r="M23" s="5"/>
+      <c r="N23" s="24">
         <f t="shared" si="0"/>
         <v>11328800</v>
       </c>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5">
-        <f>$E6 * (B23*B13)</f>
-        <v>10195920.000000002</v>
-      </c>
+      <c r="O23" s="5"/>
       <c r="P23" s="5">
         <f>$F6 * (B23*B13)</f>
-        <v>8609888</v>
-      </c>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5">
-        <f>$H6 * (B23*B13)</f>
+        <v>10195920.000000002</v>
+      </c>
+      <c r="Q23" s="5">
+        <f>$G6 * (B23*B13)</f>
+        <v>7930160.0000000009</v>
+      </c>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5">
+        <f>$I6 * (B23*B13)</f>
         <v>3398640.0000000005</v>
       </c>
-      <c r="S23" s="24">
+      <c r="T23" s="24">
         <f t="shared" si="1"/>
-        <v>22204448</v>
-      </c>
-      <c r="T23" s="25">
-        <f>SUM(I23+M23)</f>
+        <v>21524720.000000004</v>
+      </c>
+      <c r="U23" s="25">
+        <f>SUM(J23+N23)</f>
         <v>16426760</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A24" s="18" t="s">
         <v>29</v>
       </c>
@@ -1514,450 +1658,472 @@
         <f>SUM(B17:B23)</f>
         <v>224741</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="24">
-        <f t="shared" ref="D24:I24" si="4">SUM(D17:D23)</f>
+      <c r="C24" s="31"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="24">
+        <f t="shared" ref="E24:J24" si="4">SUM(E17:E23)</f>
         <v>18968400</v>
       </c>
-      <c r="E24" s="24">
+      <c r="F24" s="24">
         <f t="shared" si="4"/>
         <v>14142000</v>
       </c>
-      <c r="F24" s="24">
+      <c r="G24" s="24">
         <f t="shared" si="4"/>
         <v>6392232</v>
       </c>
-      <c r="G24" s="24">
+      <c r="H24" s="24">
         <f t="shared" si="4"/>
         <v>7415160</v>
       </c>
-      <c r="H24" s="24">
+      <c r="I24" s="24">
         <f t="shared" si="4"/>
         <v>7438680</v>
       </c>
-      <c r="I24" s="24">
+      <c r="J24" s="24">
         <f t="shared" si="4"/>
         <v>54356472</v>
       </c>
-      <c r="J24" s="24">
-        <f t="shared" ref="J24:R24" si="5">SUM(J17:J23)</f>
+      <c r="K24" s="24">
+        <f t="shared" ref="K24:S24" si="5">SUM(K17:K23)</f>
         <v>2486800</v>
       </c>
-      <c r="K24" s="24">
+      <c r="L24" s="24">
         <f t="shared" si="5"/>
         <v>75566400</v>
       </c>
-      <c r="L24" s="24">
+      <c r="M24" s="24">
         <f t="shared" si="5"/>
         <v>6774435</v>
       </c>
-      <c r="M24" s="24">
-        <f>SUM(M17:M23)</f>
+      <c r="N24" s="24">
+        <f>SUM(N17:N23)</f>
         <v>84827635</v>
       </c>
-      <c r="N24" s="24">
+      <c r="O24" s="24">
         <f t="shared" si="5"/>
         <v>17055840</v>
       </c>
-      <c r="O24" s="24">
+      <c r="P24" s="24">
         <f t="shared" si="5"/>
         <v>41293800</v>
       </c>
-      <c r="P24" s="24">
-        <f t="shared" si="5"/>
-        <v>27817520</v>
-      </c>
       <c r="Q24" s="24">
         <f t="shared" si="5"/>
-        <v>35606120</v>
+        <v>25621400</v>
       </c>
       <c r="R24" s="24">
         <f t="shared" si="5"/>
+        <v>35606120</v>
+      </c>
+      <c r="S24" s="24">
+        <f t="shared" si="5"/>
         <v>11715960</v>
       </c>
-      <c r="S24" s="24">
-        <f>SUM(S17:S23)</f>
-        <v>133489240</v>
-      </c>
-      <c r="T24" s="25">
-        <f>SUM(I24+M24)</f>
+      <c r="T24" s="24">
+        <f>SUM(T17:T23)</f>
+        <v>131293120</v>
+      </c>
+      <c r="U24" s="25">
+        <f>SUM(J24+N24)</f>
         <v>139184107</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A25" s="17">
         <v>2018</v>
       </c>
       <c r="B25" s="7">
         <v>44274</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="5">
-        <f>$M6 * (B25*B11)</f>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5">
+        <f>$N6 * (B25*B11)</f>
         <v>2656440</v>
       </c>
-      <c r="I25" s="24">
+      <c r="J25" s="24">
         <f t="shared" si="2"/>
         <v>2656440</v>
       </c>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5">
-        <f>$I6 * (B25*B12)</f>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5">
+        <f>$J6 * (B25*B12)</f>
         <v>17709600</v>
       </c>
-      <c r="L25" s="5"/>
-      <c r="M25" s="24">
-        <f t="shared" ref="M25:M39" si="6">SUM(J25:L25)</f>
+      <c r="M25" s="5"/>
+      <c r="N25" s="24">
+        <f t="shared" ref="N25:N39" si="6">SUM(K25:M25)</f>
         <v>17709600</v>
       </c>
-      <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
-      <c r="R25" s="5">
-        <f>$H6 * (B25*B13)</f>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5">
+        <f>$I6 * (B25*B13)</f>
         <v>5312880.0000000009</v>
       </c>
-      <c r="S25" s="24">
-        <f t="shared" ref="S25:S39" si="7">SUM(N25:R25)</f>
+      <c r="T25" s="24">
+        <f t="shared" ref="T25:T39" si="7">SUM(O25:S25)</f>
         <v>5312880.0000000009</v>
       </c>
-      <c r="T25" s="25">
-        <f>SUM(I25+M25+S25)</f>
+      <c r="U25" s="25">
+        <f>SUM(J25+N25+T25)</f>
         <v>25678920</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A26" s="17"/>
       <c r="B26" s="7">
         <v>38253</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5">
-        <f>$C6 * (B26*B11)</f>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5">
+        <f>$D6 * (B26*B11)</f>
         <v>4590360</v>
       </c>
-      <c r="F26" s="5">
-        <f>$K6 * (B26*B11)</f>
+      <c r="G26" s="5">
+        <f>$L6 * (B26*B11)</f>
         <v>10098792</v>
       </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5">
-        <f>$M6 * (B26*B11)</f>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5">
+        <f>$N6 * (B26*B11)</f>
         <v>2295180</v>
       </c>
-      <c r="I26" s="24">
+      <c r="J26" s="24">
         <f t="shared" si="2"/>
         <v>16984332</v>
       </c>
-      <c r="J26" s="5">
-        <f>$D6 * (B26*B12)</f>
+      <c r="K26" s="5">
+        <f>$E6 * (B26*B12)</f>
         <v>1530120</v>
       </c>
-      <c r="K26" s="5">
-        <f>$I6 * (B26*B12)</f>
+      <c r="L26" s="5">
+        <f>$J6 * (B26*B12)</f>
         <v>15301200</v>
       </c>
-      <c r="L26" s="5"/>
-      <c r="M26" s="24">
+      <c r="M26" s="5"/>
+      <c r="N26" s="24">
         <f t="shared" si="6"/>
         <v>16831320</v>
       </c>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5">
-        <f>$E6 * (B26*B13)</f>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5">
+        <f>$F6 * (B26*B13)</f>
         <v>13771080</v>
       </c>
-      <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
-      <c r="S26" s="24">
+      <c r="S26" s="5"/>
+      <c r="T26" s="24">
         <f t="shared" si="7"/>
         <v>13771080</v>
       </c>
-      <c r="T26" s="25">
-        <f t="shared" ref="T26:T40" si="8">SUM(I26+M26+S26)</f>
+      <c r="U26" s="25">
+        <f t="shared" ref="U26:U40" si="8">SUM(J26+N26+T26)</f>
         <v>47586732</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A27" s="17"/>
       <c r="B27" s="7">
         <v>35347</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="5">
+      <c r="E27" s="5">
         <f>$B6 * (B27*B11)</f>
         <v>25449840</v>
       </c>
-      <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
-      <c r="H27" s="5">
-        <f>$M6 * (B27*B11)</f>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5">
+        <f>$N6 * (B27*B11)</f>
         <v>2120820</v>
       </c>
-      <c r="I27" s="24">
+      <c r="J27" s="24">
         <f t="shared" si="2"/>
         <v>27570660</v>
       </c>
-      <c r="J27" s="5">
-        <f>$D6 * (B27*B12)</f>
+      <c r="K27" s="5">
+        <f>$E6 * (B27*B12)</f>
         <v>1413880</v>
       </c>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5">
-        <f>$J6 * (B27*B12)</f>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5">
+        <f>$K6 * (B27*B12)</f>
         <v>4771845</v>
       </c>
-      <c r="M27" s="24">
+      <c r="N27" s="24">
         <f t="shared" si="6"/>
         <v>6185725</v>
       </c>
-      <c r="N27" s="5">
+      <c r="O27" s="5">
         <f>$A6 * (B27*B13)</f>
         <v>8483280</v>
       </c>
-      <c r="O27" s="5"/>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
-      <c r="R27" s="5">
-        <f>$H6 * (B27*B13)</f>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5">
+        <f>$I6 * (B27*B13)</f>
         <v>4241640</v>
       </c>
-      <c r="S27" s="24">
+      <c r="T27" s="24">
         <f t="shared" si="7"/>
         <v>12724920</v>
       </c>
-      <c r="T27" s="25">
+      <c r="U27" s="25">
         <f t="shared" si="8"/>
         <v>46481305</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A28" s="17"/>
       <c r="B28" s="7">
         <v>23254</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="5"/>
       <c r="E28" s="5"/>
-      <c r="F28" s="5">
-        <f>$K6 * (B28*B11)</f>
-        <v>6139056</v>
-      </c>
+      <c r="F28" s="5"/>
       <c r="G28" s="5">
         <f>$L6 * (B28*B11)</f>
-        <v>2790480</v>
+        <v>6139056</v>
       </c>
       <c r="H28" s="5">
         <f>$M6 * (B28*B11)</f>
+        <v>2790480</v>
+      </c>
+      <c r="I28" s="5">
+        <f>$N6 * (B28*B11)</f>
         <v>1395240</v>
       </c>
-      <c r="I28" s="24">
+      <c r="J28" s="24">
         <f t="shared" si="2"/>
         <v>10324776</v>
       </c>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5">
-        <f>$I6 * (B27*B12)</f>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5">
+        <f>$J6 * (B27*B12)</f>
         <v>14138800</v>
       </c>
-      <c r="L28" s="5"/>
-      <c r="M28" s="24">
+      <c r="M28" s="5"/>
+      <c r="N28" s="24">
         <f t="shared" si="6"/>
         <v>14138800</v>
       </c>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5">
-        <f>$E6 * (B28*B13)</f>
-        <v>8371440</v>
-      </c>
+      <c r="O28" s="5"/>
       <c r="P28" s="5">
         <f>$F6 * (B28*B13)</f>
-        <v>7069216</v>
-      </c>
-      <c r="Q28" s="5"/>
+        <v>8371440</v>
+      </c>
+      <c r="Q28" s="5">
+        <f>$G6 * (B28*B13)</f>
+        <v>6511120</v>
+      </c>
       <c r="R28" s="5"/>
-      <c r="S28" s="24">
+      <c r="S28" s="5"/>
+      <c r="T28" s="24">
         <f t="shared" si="7"/>
-        <v>15440656</v>
-      </c>
-      <c r="T28" s="25">
+        <v>14882560</v>
+      </c>
+      <c r="U28" s="25">
         <f t="shared" si="8"/>
-        <v>39904232</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
+        <v>39346136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A29" s="17"/>
       <c r="B29" s="7">
         <v>25421</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5">
-        <f>$C6 * (B29*B11)</f>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5">
+        <f>$D6 * (B29*B11)</f>
         <v>3050519.9999999995</v>
       </c>
-      <c r="F29" s="5"/>
       <c r="G29" s="5"/>
-      <c r="H29" s="5">
-        <f>$M6 * (B29*B11)</f>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5">
+        <f>$N6 * (B29*B11)</f>
         <v>1525259.9999999998</v>
       </c>
-      <c r="I29" s="24">
+      <c r="J29" s="24">
         <f t="shared" si="2"/>
         <v>4575779.9999999991</v>
       </c>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5">
-        <f>$I6 * (B29*B12)</f>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5">
+        <f>$J6 * (B29*B12)</f>
         <v>10168400</v>
       </c>
-      <c r="L29" s="5"/>
-      <c r="M29" s="24">
+      <c r="M29" s="5"/>
+      <c r="N29" s="24">
         <f t="shared" si="6"/>
         <v>10168400</v>
       </c>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5">
-        <f>$E6 * (B29*B13)</f>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5">
+        <f>$F6 * (B29*B13)</f>
         <v>9151560.0000000019</v>
       </c>
-      <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
-      <c r="R29" s="5">
-        <f>$H6 * (B29*B13)</f>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5">
+        <f>$I6 * (B29*B13)</f>
         <v>3050520.0000000005</v>
       </c>
-      <c r="S29" s="24">
+      <c r="T29" s="24">
         <f t="shared" si="7"/>
         <v>12202080.000000002</v>
       </c>
-      <c r="T29" s="25">
+      <c r="U29" s="25">
         <f t="shared" si="8"/>
         <v>26946260</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A30" s="17"/>
       <c r="B30" s="7">
         <v>25180</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="5">
-        <f>$L6 * (B30*B11)</f>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5">
+        <f>$M6 * (B30*B11)</f>
         <v>3021600</v>
       </c>
-      <c r="H30" s="5"/>
-      <c r="I30" s="24">
+      <c r="I30" s="5"/>
+      <c r="J30" s="24">
         <f t="shared" si="2"/>
         <v>3021600</v>
       </c>
-      <c r="J30" s="5"/>
       <c r="K30" s="5"/>
-      <c r="L30" s="5">
-        <f>$J6 * (B30*B12)</f>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5">
+        <f>$K6 * (B30*B12)</f>
         <v>3399300</v>
       </c>
-      <c r="M30" s="24">
+      <c r="N30" s="24">
         <f t="shared" si="6"/>
         <v>3399300</v>
       </c>
-      <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
-      <c r="Q30" s="5">
-        <f>$G6 * (B30*B13)</f>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5">
+        <f>$H6 * (B30*B13)</f>
         <v>11079200</v>
       </c>
-      <c r="R30" s="5"/>
-      <c r="S30" s="24">
+      <c r="S30" s="5"/>
+      <c r="T30" s="24">
         <f t="shared" si="7"/>
         <v>11079200</v>
       </c>
-      <c r="T30" s="25">
+      <c r="U30" s="25">
         <f t="shared" si="8"/>
         <v>17500100</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A31" s="17"/>
       <c r="B31" s="7">
         <v>27256</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="5">
+      <c r="E31" s="5">
         <f>$B6 * B31</f>
         <v>32707200</v>
       </c>
-      <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
-      <c r="H31" s="5">
-        <f>$M6 * (B31*B11)</f>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5">
+        <f>$N6 * (B31*B11)</f>
         <v>1635359.9999999998</v>
       </c>
-      <c r="I31" s="24">
+      <c r="J31" s="24">
         <f t="shared" si="2"/>
         <v>34342560</v>
       </c>
-      <c r="J31" s="5"/>
       <c r="K31" s="5"/>
-      <c r="L31" s="5">
-        <f>$J6 * (B31*B12)</f>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5">
+        <f>$K6 * (B31*B12)</f>
         <v>3679560</v>
       </c>
-      <c r="M31" s="24">
+      <c r="N31" s="24">
         <f t="shared" si="6"/>
         <v>3679560</v>
       </c>
-      <c r="N31" s="5">
+      <c r="O31" s="5">
         <f>$A6 * (B31*B13)</f>
         <v>6541440.0000000009</v>
       </c>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5">
-        <f>$F6 * (B31*B13)</f>
-        <v>8285824.0000000009</v>
-      </c>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5">
-        <f>$H6 * (B31*B13)</f>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5">
+        <f>$G6 * (B31*B13)</f>
+        <v>7631680.0000000009</v>
+      </c>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5">
+        <f>$I6 * (B31*B13)</f>
         <v>3270720.0000000005</v>
       </c>
-      <c r="S31" s="24">
+      <c r="T31" s="24">
         <f t="shared" si="7"/>
-        <v>18097984.000000004</v>
-      </c>
-      <c r="T31" s="25">
+        <v>17443840.000000004</v>
+      </c>
+      <c r="U31" s="25">
         <f t="shared" si="8"/>
-        <v>56120104</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.45">
+        <v>55465960</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A32" s="18" t="s">
         <v>31</v>
       </c>
@@ -1965,468 +2131,490 @@
         <f>SUM(B25:B31)</f>
         <v>218985</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="24">
-        <f>SUM(D25:D31)</f>
+      <c r="C32" s="31"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="24">
+        <f>SUM(E25:E31)</f>
         <v>58157040</v>
       </c>
-      <c r="E32" s="24">
-        <f t="shared" ref="E32:H32" si="9">SUM(E25:E31)</f>
+      <c r="F32" s="24">
+        <f t="shared" ref="F32:I32" si="9">SUM(F25:F31)</f>
         <v>7640880</v>
       </c>
-      <c r="F32" s="24">
+      <c r="G32" s="24">
         <f t="shared" si="9"/>
         <v>16237848</v>
       </c>
-      <c r="G32" s="24">
+      <c r="H32" s="24">
         <f t="shared" si="9"/>
         <v>5812080</v>
       </c>
-      <c r="H32" s="24">
+      <c r="I32" s="24">
         <f t="shared" si="9"/>
         <v>11628300</v>
       </c>
-      <c r="I32" s="24">
-        <f t="shared" ref="I32:O32" si="10">SUM(I25:I31)</f>
+      <c r="J32" s="24">
+        <f t="shared" ref="J32:P32" si="10">SUM(J25:J31)</f>
         <v>99476148</v>
       </c>
-      <c r="J32" s="24">
+      <c r="K32" s="24">
         <f t="shared" si="10"/>
         <v>2944000</v>
       </c>
-      <c r="K32" s="24">
+      <c r="L32" s="24">
         <f t="shared" si="10"/>
         <v>57318000</v>
       </c>
-      <c r="L32" s="24">
+      <c r="M32" s="24">
         <f t="shared" si="10"/>
         <v>11850705</v>
       </c>
-      <c r="M32" s="24">
+      <c r="N32" s="24">
         <f t="shared" si="10"/>
         <v>72112705</v>
       </c>
-      <c r="N32" s="24">
+      <c r="O32" s="24">
         <f t="shared" si="10"/>
         <v>15024720</v>
       </c>
-      <c r="O32" s="24">
+      <c r="P32" s="24">
         <f t="shared" si="10"/>
         <v>31294080</v>
       </c>
-      <c r="P32" s="24">
-        <f t="shared" ref="P32:Q32" si="11">SUM(P25:P31)</f>
-        <v>15355040</v>
-      </c>
       <c r="Q32" s="24">
+        <f t="shared" ref="Q32:R32" si="11">SUM(Q25:Q31)</f>
+        <v>14142800</v>
+      </c>
+      <c r="R32" s="24">
         <f t="shared" si="11"/>
         <v>11079200</v>
       </c>
-      <c r="R32" s="24">
-        <f>SUM(R25:R31)</f>
-        <v>15875760</v>
-      </c>
       <c r="S32" s="24">
         <f>SUM(S25:S31)</f>
-        <v>88628800</v>
-      </c>
-      <c r="T32" s="25">
+        <v>15875760</v>
+      </c>
+      <c r="T32" s="24">
+        <f>SUM(T25:T31)</f>
+        <v>87416560</v>
+      </c>
+      <c r="U32" s="25">
         <f t="shared" si="8"/>
-        <v>260217653</v>
-      </c>
-    </row>
-    <row r="33" spans="1:89" x14ac:dyDescent="0.45">
+        <v>259005413</v>
+      </c>
+    </row>
+    <row r="33" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A33" s="17">
         <v>2017</v>
       </c>
       <c r="B33" s="7">
         <v>43204</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
-      <c r="H33" s="5">
-        <f>$M6 * (B33*B11)</f>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5">
+        <f>$N6 * (B33*B11)</f>
         <v>2592240</v>
       </c>
-      <c r="I33" s="24">
+      <c r="J33" s="24">
         <f t="shared" si="2"/>
         <v>2592240</v>
       </c>
-      <c r="J33" s="5">
-        <f>$D6 * (B33*B12)</f>
+      <c r="K33" s="5">
+        <f>$E6 * (B33*B12)</f>
         <v>1728160</v>
       </c>
-      <c r="K33" s="5"/>
       <c r="L33" s="5"/>
-      <c r="M33" s="24">
+      <c r="M33" s="5"/>
+      <c r="N33" s="24">
         <f t="shared" si="6"/>
         <v>1728160</v>
       </c>
-      <c r="N33" s="5"/>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
-      <c r="R33" s="5">
-        <f>$H6 * (B33*B13)</f>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5">
+        <f>$I6 * (B33*B13)</f>
         <v>5184480.0000000009</v>
       </c>
-      <c r="S33" s="24">
+      <c r="T33" s="24">
         <f t="shared" si="7"/>
         <v>5184480.0000000009</v>
       </c>
-      <c r="T33" s="25">
+      <c r="U33" s="25">
         <f t="shared" si="8"/>
         <v>9504880</v>
       </c>
     </row>
-    <row r="34" spans="1:89" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A34" s="17"/>
       <c r="B34" s="7">
         <v>37463</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="5">
+      <c r="E34" s="5">
         <f>$B6 * (B34*B11)</f>
         <v>26973360</v>
       </c>
-      <c r="E34" s="5"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="5">
-        <f>$L6 * (B34*B11)</f>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5">
+        <f>$M6 * (B34*B11)</f>
         <v>4495560</v>
       </c>
-      <c r="H34" s="5">
-        <f>$M6*(B34*B11)</f>
+      <c r="I34" s="5">
+        <f>$N6*(B34*B11)</f>
         <v>2247780</v>
       </c>
-      <c r="I34" s="24">
+      <c r="J34" s="24">
         <f t="shared" si="2"/>
         <v>33716700</v>
       </c>
-      <c r="J34" s="5">
-        <f>$D6 * (B34*B12)</f>
+      <c r="K34" s="5">
+        <f>$E6 * (B34*B12)</f>
         <v>1498520</v>
       </c>
-      <c r="K34" s="5">
-        <f>$I6 * (B34*B12)</f>
+      <c r="L34" s="5">
+        <f>$J6 * (B34*B12)</f>
         <v>14985200</v>
       </c>
-      <c r="L34" s="5"/>
-      <c r="M34" s="24">
+      <c r="M34" s="5"/>
+      <c r="N34" s="24">
         <f t="shared" si="6"/>
         <v>16483720</v>
       </c>
-      <c r="N34" s="5">
+      <c r="O34" s="5">
         <f>$A6 * (B34*B13)</f>
         <v>8991120</v>
       </c>
-      <c r="O34" s="5"/>
       <c r="P34" s="5"/>
-      <c r="Q34" s="5">
-        <f>$G6 * (B34*B13)</f>
-        <v>16483720</v>
-      </c>
+      <c r="Q34" s="5"/>
       <c r="R34" s="5">
         <f>$H6 * (B34*B13)</f>
+        <v>16483720</v>
+      </c>
+      <c r="S34" s="5">
+        <f>$I6 * (B34*B13)</f>
         <v>4495560</v>
       </c>
-      <c r="S34" s="24">
+      <c r="T34" s="24">
         <f t="shared" si="7"/>
         <v>29970400</v>
       </c>
-      <c r="T34" s="25">
+      <c r="U34" s="25">
         <f t="shared" si="8"/>
         <v>80170820</v>
       </c>
     </row>
-    <row r="35" spans="1:89" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A35" s="17"/>
       <c r="B35" s="7">
         <v>34774</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5">
-        <f>$C6 * (B35*B11)</f>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5">
+        <f>$D6 * (B35*B11)</f>
         <v>4172879.9999999995</v>
       </c>
-      <c r="F35" s="5"/>
       <c r="G35" s="5"/>
-      <c r="H35" s="5">
-        <f>$M6 * (B35*B11)</f>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5">
+        <f>$N6 * (B35*B11)</f>
         <v>2086439.9999999998</v>
       </c>
-      <c r="I35" s="24">
+      <c r="J35" s="24">
         <f t="shared" si="2"/>
         <v>6259319.9999999991</v>
       </c>
-      <c r="J35" s="5">
-        <f>$D6 * (B35*B12)</f>
+      <c r="K35" s="5">
+        <f>$E6 * (B35*B12)</f>
         <v>1390960</v>
       </c>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5">
-        <f>$J6 * (B35*B12)</f>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5">
+        <f>$K6 * (B35*B12)</f>
         <v>4694490</v>
       </c>
-      <c r="M35" s="24">
+      <c r="N35" s="24">
         <f t="shared" si="6"/>
         <v>6085450</v>
       </c>
-      <c r="N35" s="5">
+      <c r="O35" s="5">
         <f>$A6 * (B35*B13)</f>
         <v>8345760</v>
       </c>
-      <c r="O35" s="5"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
-      <c r="R35" s="5">
-        <f>$H6 * (B35*B13)</f>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5">
+        <f>$I6 * (B35*B13)</f>
         <v>4172880</v>
       </c>
-      <c r="S35" s="24">
+      <c r="T35" s="24">
         <f t="shared" si="7"/>
         <v>12518640</v>
       </c>
-      <c r="T35" s="25">
+      <c r="U35" s="25">
         <f t="shared" si="8"/>
         <v>24863410</v>
       </c>
     </row>
-    <row r="36" spans="1:89" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A36" s="17"/>
       <c r="B36" s="7">
         <v>22597</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="5">
+      <c r="E36" s="5">
         <f>$B6 * (B36*B11)</f>
         <v>16269839.999999998</v>
       </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5">
-        <f>$K6 * (B36*B11)</f>
-        <v>5965607.9999999991</v>
-      </c>
+      <c r="F36" s="5"/>
       <c r="G36" s="5">
         <f>$L6 * (B36*B11)</f>
-        <v>2711640</v>
+        <v>5965607.9999999991</v>
       </c>
       <c r="H36" s="5">
         <f>$M6 * (B36*B11)</f>
+        <v>2711640</v>
+      </c>
+      <c r="I36" s="5">
+        <f>$N6 * (B36*B11)</f>
         <v>1355820</v>
       </c>
-      <c r="I36" s="24">
+      <c r="J36" s="24">
         <f t="shared" si="2"/>
         <v>26302907.999999996</v>
       </c>
-      <c r="J36" s="5">
-        <f>$D6 * (B36*B12)</f>
+      <c r="K36" s="5">
+        <f>$E6 * (B36*B12)</f>
         <v>903880</v>
       </c>
-      <c r="K36" s="5">
-        <f>$I6 * (B36*B12)</f>
+      <c r="L36" s="5">
+        <f>$J6 * (B36*B12)</f>
         <v>9038800</v>
       </c>
-      <c r="L36" s="5"/>
-      <c r="M36" s="24">
+      <c r="M36" s="5"/>
+      <c r="N36" s="24">
         <f t="shared" si="6"/>
         <v>9942680</v>
       </c>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5">
-        <f>$E6 * (B36*B13)</f>
-        <v>8134920.0000000009</v>
-      </c>
+      <c r="O36" s="5"/>
       <c r="P36" s="5">
         <f>$F6 * (B36*B13)</f>
-        <v>6869488.0000000009</v>
-      </c>
-      <c r="Q36" s="5"/>
+        <v>8134920.0000000009</v>
+      </c>
+      <c r="Q36" s="5">
+        <f>$G6 * (B36*B13)</f>
+        <v>6327160.0000000009</v>
+      </c>
       <c r="R36" s="5"/>
-      <c r="S36" s="24">
+      <c r="S36" s="5"/>
+      <c r="T36" s="24">
         <f t="shared" si="7"/>
-        <v>15004408.000000002</v>
-      </c>
-      <c r="T36" s="25">
+        <v>14462080.000000002</v>
+      </c>
+      <c r="U36" s="25">
         <f t="shared" si="8"/>
-        <v>51249996</v>
-      </c>
-    </row>
-    <row r="37" spans="1:89" x14ac:dyDescent="0.45">
+        <v>50707668</v>
+      </c>
+    </row>
+    <row r="37" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A37" s="17"/>
       <c r="B37" s="7">
         <v>24520</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5">
-        <f>$C6 * (B37*B11)</f>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5">
+        <f>$D6 * (B37*B11)</f>
         <v>2942400</v>
       </c>
-      <c r="F37" s="5"/>
       <c r="G37" s="5"/>
-      <c r="H37" s="5">
-        <f>$M6 * (B37*B11)</f>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5">
+        <f>$N6 * (B37*B11)</f>
         <v>1471200</v>
       </c>
-      <c r="I37" s="24">
+      <c r="J37" s="24">
         <f t="shared" si="2"/>
         <v>4413600</v>
       </c>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5">
-        <f>$I6 * (B37*B12)</f>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5">
+        <f>$J6 * (B37*B12)</f>
         <v>9808000</v>
       </c>
-      <c r="L37" s="5"/>
-      <c r="M37" s="24">
+      <c r="M37" s="5"/>
+      <c r="N37" s="24">
         <f t="shared" si="6"/>
         <v>9808000</v>
       </c>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5">
-        <f>$E6 * (B37*B13)</f>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5">
+        <f>$F6 * (B37*B13)</f>
         <v>8827200</v>
       </c>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5">
-        <f>$G6 * (B37*B13)</f>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5">
+        <f>$H6 * (B37*B13)</f>
         <v>10788800</v>
       </c>
-      <c r="R37" s="5"/>
-      <c r="S37" s="24">
+      <c r="S37" s="5"/>
+      <c r="T37" s="24">
         <f t="shared" si="7"/>
         <v>19616000</v>
       </c>
-      <c r="T37" s="25">
+      <c r="U37" s="25">
         <f t="shared" si="8"/>
         <v>33837600</v>
       </c>
     </row>
-    <row r="38" spans="1:89" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A38" s="17"/>
       <c r="B38" s="7">
         <v>23581</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="5">
+      <c r="E38" s="5">
         <f>$B6 * (B38*B11)</f>
         <v>16978320</v>
       </c>
-      <c r="E38" s="5"/>
       <c r="F38" s="5"/>
-      <c r="G38" s="5">
-        <f>$L6 * (B38*B11)</f>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5">
+        <f>$M6 * (B38*B11)</f>
         <v>2829720</v>
       </c>
-      <c r="H38" s="5"/>
-      <c r="I38" s="24">
+      <c r="I38" s="5"/>
+      <c r="J38" s="24">
         <f t="shared" si="2"/>
         <v>19808040</v>
       </c>
-      <c r="J38" s="5">
-        <f>$D6 * (B38*B12)</f>
+      <c r="K38" s="5">
+        <f>$E6 * (B38*B12)</f>
         <v>943240</v>
       </c>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5">
-        <f>$J6 * (B38*B12)</f>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5">
+        <f>$K6 * (B38*B12)</f>
         <v>3183435</v>
       </c>
-      <c r="M38" s="24">
+      <c r="N38" s="24">
         <f t="shared" si="6"/>
         <v>4126675</v>
       </c>
-      <c r="N38" s="5"/>
       <c r="O38" s="5"/>
-      <c r="P38" s="5">
-        <f>$F6 * (B28*B13)</f>
-        <v>7069216</v>
-      </c>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5">
-        <f>$H6 * (B38*B13)</f>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5">
+        <f>$G6 * (B28*B13)</f>
+        <v>6511120</v>
+      </c>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5">
+        <f>$I6 * (B38*B13)</f>
         <v>2829720</v>
       </c>
-      <c r="S38" s="24">
+      <c r="T38" s="24">
         <f t="shared" si="7"/>
-        <v>9898936</v>
-      </c>
-      <c r="T38" s="25">
+        <v>9340840</v>
+      </c>
+      <c r="U38" s="25">
         <f t="shared" si="8"/>
-        <v>33833651</v>
-      </c>
-    </row>
-    <row r="39" spans="1:89" x14ac:dyDescent="0.45">
+        <v>33275555</v>
+      </c>
+    </row>
+    <row r="39" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A39" s="17"/>
       <c r="B39" s="7">
         <v>26077</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D39" s="5"/>
       <c r="E39" s="5"/>
-      <c r="F39" s="5">
-        <f>$K6 * (B39*B11)</f>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5">
+        <f>$L6 * (B39*B11)</f>
         <v>6884327.9999999991</v>
       </c>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5">
-        <f>$M6 * (B39*B11)</f>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5">
+        <f>$N6 * (B39*B11)</f>
         <v>1564620</v>
       </c>
-      <c r="I39" s="24">
+      <c r="J39" s="24">
         <f t="shared" si="2"/>
         <v>8448948</v>
       </c>
-      <c r="J39" s="5">
-        <f>$D6 * (B39*B12)</f>
+      <c r="K39" s="5">
+        <f>$E6 * (B39*B12)</f>
         <v>1043080</v>
       </c>
-      <c r="K39" s="5"/>
       <c r="L39" s="5"/>
-      <c r="M39" s="24">
+      <c r="M39" s="5"/>
+      <c r="N39" s="24">
         <f t="shared" si="6"/>
         <v>1043080</v>
       </c>
-      <c r="N39" s="5">
+      <c r="O39" s="5">
         <f>$A6 * (B39*B13)</f>
         <v>6258480.0000000009</v>
       </c>
-      <c r="O39" s="5"/>
       <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
-      <c r="R39" s="5">
-        <f>$H6 * (B39*B13)</f>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5">
+        <f>$I6 * (B39*B13)</f>
         <v>3129240.0000000005</v>
       </c>
-      <c r="S39" s="24">
+      <c r="T39" s="24">
         <f t="shared" si="7"/>
         <v>9387720.0000000019</v>
       </c>
-      <c r="T39" s="25">
+      <c r="U39" s="25">
         <f t="shared" si="8"/>
         <v>18879748</v>
       </c>
     </row>
-    <row r="40" spans="1:89" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A40" s="18" t="s">
         <v>30</v>
       </c>
@@ -2434,77 +2622,78 @@
         <f>SUM(B33:B39)</f>
         <v>212216</v>
       </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="24">
-        <f t="shared" ref="D40:S40" si="12">SUM(D33:D39)</f>
+      <c r="C40" s="31"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="24">
+        <f t="shared" ref="E40:T40" si="12">SUM(E33:E39)</f>
         <v>60221520</v>
       </c>
-      <c r="E40" s="24">
+      <c r="F40" s="24">
         <f t="shared" si="12"/>
         <v>7115280</v>
       </c>
-      <c r="F40" s="24">
+      <c r="G40" s="24">
         <f t="shared" si="12"/>
         <v>12849935.999999998</v>
       </c>
-      <c r="G40" s="24">
+      <c r="H40" s="24">
         <f t="shared" si="12"/>
         <v>10036920</v>
       </c>
-      <c r="H40" s="24">
-        <f>SUM(H33:H39)</f>
+      <c r="I40" s="24">
+        <f>SUM(I33:I39)</f>
         <v>11318100</v>
       </c>
-      <c r="I40" s="24">
+      <c r="J40" s="24">
         <f t="shared" si="12"/>
         <v>101541756</v>
       </c>
-      <c r="J40" s="24">
+      <c r="K40" s="24">
         <f t="shared" si="12"/>
         <v>7507840</v>
       </c>
-      <c r="K40" s="24">
+      <c r="L40" s="24">
         <f t="shared" si="12"/>
         <v>33832000</v>
       </c>
-      <c r="L40" s="24">
+      <c r="M40" s="24">
         <f t="shared" si="12"/>
         <v>7877925</v>
       </c>
-      <c r="M40" s="24">
+      <c r="N40" s="24">
         <f t="shared" si="12"/>
         <v>49217765</v>
       </c>
-      <c r="N40" s="24">
+      <c r="O40" s="24">
         <f t="shared" si="12"/>
         <v>23595360</v>
       </c>
-      <c r="O40" s="24">
+      <c r="P40" s="24">
         <f t="shared" si="12"/>
         <v>16962120</v>
       </c>
-      <c r="P40" s="24">
-        <f t="shared" si="12"/>
-        <v>13938704</v>
-      </c>
       <c r="Q40" s="24">
         <f t="shared" si="12"/>
-        <v>27272520</v>
+        <v>12838280</v>
       </c>
       <c r="R40" s="24">
         <f t="shared" si="12"/>
-        <v>19811880</v>
+        <v>27272520</v>
       </c>
       <c r="S40" s="24">
         <f t="shared" si="12"/>
-        <v>101580584</v>
-      </c>
-      <c r="T40" s="25">
+        <v>19811880</v>
+      </c>
+      <c r="T40" s="24">
+        <f t="shared" si="12"/>
+        <v>100480160</v>
+      </c>
+      <c r="U40" s="25">
         <f t="shared" si="8"/>
-        <v>252340105</v>
-      </c>
-    </row>
-    <row r="41" spans="1:89" x14ac:dyDescent="0.45">
+        <v>251239681</v>
+      </c>
+    </row>
+    <row r="41" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A41" s="17">
         <v>2016</v>
       </c>
@@ -2512,100 +2701,105 @@
         <v>42350</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
-      <c r="H41" s="5">
-        <f>$M6 * (B41*B11)</f>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5">
+        <f>$N6 * (B41*B11)</f>
         <v>2541000</v>
       </c>
-      <c r="I41" s="24">
-        <f>SUM(D41:H41)</f>
+      <c r="J41" s="24">
+        <f>SUM(E41:I41)</f>
         <v>2541000</v>
       </c>
-      <c r="J41" s="5">
-        <f>$D6 * (B41*B12)</f>
+      <c r="K41" s="5">
+        <f>$E6 * (B41*B12)</f>
         <v>1694000</v>
       </c>
-      <c r="K41" s="5"/>
       <c r="L41" s="5"/>
-      <c r="M41" s="24">
-        <f>SUM(J41:L41)</f>
+      <c r="M41" s="5"/>
+      <c r="N41" s="24">
+        <f>SUM(K41:M41)</f>
         <v>1694000</v>
       </c>
-      <c r="N41" s="5"/>
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
       <c r="Q41" s="5"/>
-      <c r="R41" s="5">
-        <f>$H6 * (B41*B13)</f>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5">
+        <f>$I6 * (B41*B13)</f>
         <v>5082000</v>
       </c>
-      <c r="S41" s="24">
-        <f>SUM(N41:R41)</f>
+      <c r="T41" s="24">
+        <f>SUM(O41:S41)</f>
         <v>5082000</v>
       </c>
-      <c r="T41" s="25">
-        <f>SUM(I41+M41+S41)</f>
+      <c r="U41" s="25">
+        <f>SUM(J41+N41+T41)</f>
         <v>9317000</v>
       </c>
     </row>
-    <row r="42" spans="1:89" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A42" s="17"/>
       <c r="B42" s="7">
         <v>36189</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="5"/>
       <c r="E42" s="5"/>
-      <c r="F42" s="5">
-        <f>$K6 * (B42*B11)</f>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5">
+        <f>$L6 * (B42*B11)</f>
         <v>9553895.9999999981</v>
       </c>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5">
-        <f>$M6 * (B42*B11)</f>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5">
+        <f>$N6 * (B42*B11)</f>
         <v>2171340</v>
       </c>
-      <c r="I42" s="24">
-        <f t="shared" ref="I42:I47" si="13">SUM(D42:H42)</f>
+      <c r="J42" s="24">
+        <f t="shared" ref="J42:J47" si="13">SUM(E42:I42)</f>
         <v>11725235.999999998</v>
       </c>
-      <c r="J42" s="5">
-        <f>$D6 * (B42*B12)</f>
+      <c r="K42" s="5">
+        <f>$E6 * (B42*B12)</f>
         <v>1447560</v>
       </c>
-      <c r="K42" s="5"/>
       <c r="L42" s="5"/>
-      <c r="M42" s="24">
-        <f t="shared" ref="M42:M47" si="14">SUM(J42:L42)</f>
+      <c r="M42" s="5"/>
+      <c r="N42" s="24">
+        <f t="shared" ref="N42:N47" si="14">SUM(K42:M42)</f>
         <v>1447560</v>
       </c>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5">
-        <f>$E6 * (B42*B13)</f>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5">
+        <f>$F6 * (B42*B13)</f>
         <v>13028040</v>
       </c>
-      <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
-      <c r="R42" s="5">
-        <f>$H6 * (B42*B13)</f>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5">
+        <f>$I6 * (B42*B13)</f>
         <v>4342680</v>
       </c>
-      <c r="S42" s="24">
-        <f t="shared" ref="S42:S47" si="15">SUM(N42:R42)</f>
+      <c r="T42" s="24">
+        <f t="shared" ref="T42:T47" si="15">SUM(O42:S42)</f>
         <v>17370720</v>
       </c>
-      <c r="T42" s="25">
-        <f t="shared" ref="T42:T47" si="16">SUM(I42+M42+S42)</f>
+      <c r="U42" s="25">
+        <f t="shared" ref="U42:U47" si="16">SUM(J42+N42+T42)</f>
         <v>30543516</v>
       </c>
-      <c r="Y42" s="20"/>
       <c r="Z42" s="20"/>
       <c r="AA42" s="20"/>
       <c r="AB42" s="20"/>
@@ -2670,66 +2864,69 @@
       <c r="CI42" s="20"/>
       <c r="CJ42" s="20"/>
       <c r="CK42" s="20"/>
-    </row>
-    <row r="43" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="CL42" s="20"/>
+    </row>
+    <row r="43" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A43" s="17"/>
       <c r="B43" s="1">
         <v>33508</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="5">
+      <c r="E43" s="5">
         <f>$B6 * (B43*B11)</f>
         <v>24125760</v>
       </c>
-      <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
-      <c r="H43" s="5">
-        <f>$M6 * (B43*B11)</f>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5">
+        <f>$N6 * (B43*B11)</f>
         <v>2010480</v>
       </c>
-      <c r="I43" s="24">
+      <c r="J43" s="24">
         <f t="shared" si="13"/>
         <v>26136240</v>
       </c>
-      <c r="J43" s="5">
-        <f>$D6 * (B43*B12)</f>
+      <c r="K43" s="5">
+        <f>$E6 * (B43*B12)</f>
         <v>1340320</v>
       </c>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5">
-        <f>$J6 * (B43*B12)</f>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5">
+        <f>$K6 * (B43*B12)</f>
         <v>4523580</v>
       </c>
-      <c r="M43" s="24">
+      <c r="N43" s="24">
         <f t="shared" si="14"/>
         <v>5863900</v>
       </c>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5">
-        <f>$E6 * (B43*B13)</f>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5">
+        <f>$F6 * (B43*B13)</f>
         <v>12062880</v>
       </c>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5">
-        <f>$G6 * (B43*B13)</f>
-        <v>14743520</v>
-      </c>
+      <c r="Q43" s="5"/>
       <c r="R43" s="5">
         <f>$H6 * (B43*B13)</f>
+        <v>14743520</v>
+      </c>
+      <c r="S43" s="5">
+        <f>$I6 * (B43*B13)</f>
         <v>4020960</v>
       </c>
-      <c r="S43" s="24">
+      <c r="T43" s="24">
         <f t="shared" si="15"/>
         <v>30827360</v>
       </c>
-      <c r="T43" s="25">
+      <c r="U43" s="25">
         <f t="shared" si="16"/>
         <v>62827500</v>
       </c>
-      <c r="Y43" s="20"/>
       <c r="Z43" s="20"/>
       <c r="AA43" s="20"/>
       <c r="AB43" s="20"/>
@@ -2794,63 +2991,66 @@
       <c r="CI43" s="20"/>
       <c r="CJ43" s="20"/>
       <c r="CK43" s="20"/>
-    </row>
-    <row r="44" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="CL43" s="20"/>
+    </row>
+    <row r="44" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A44" s="17"/>
       <c r="B44" s="1">
         <v>21644</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5">
-        <f>$C6 * (B44*B11)</f>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5">
+        <f>$D6 * (B44*B11)</f>
         <v>2597280</v>
       </c>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5">
-        <f>$L6 * (B44*B11)</f>
-        <v>2597280</v>
-      </c>
+      <c r="G44" s="5"/>
       <c r="H44" s="5">
         <f>$M6 * (B44*B11)</f>
+        <v>2597280</v>
+      </c>
+      <c r="I44" s="5">
+        <f>$N6 * (B44*B11)</f>
         <v>1298640</v>
       </c>
-      <c r="I44" s="24">
+      <c r="J44" s="24">
         <f t="shared" si="13"/>
         <v>6493200</v>
       </c>
-      <c r="J44" s="5">
-        <f>$D6 * (B44*B12)</f>
+      <c r="K44" s="5">
+        <f>$E6 * (B44*B12)</f>
         <v>865760</v>
       </c>
-      <c r="K44" s="5">
-        <f>$I6 * (B44*B12)</f>
+      <c r="L44" s="5">
+        <f>$J6 * (B44*B12)</f>
         <v>8657600</v>
       </c>
-      <c r="L44" s="5"/>
-      <c r="M44" s="24">
+      <c r="M44" s="5"/>
+      <c r="N44" s="24">
         <f t="shared" si="14"/>
         <v>9523360</v>
       </c>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5">
-        <f>$E6 * (B44*B13)</f>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5">
+        <f>$F6 * (B44*B13)</f>
         <v>7791840</v>
       </c>
-      <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
       <c r="R44" s="5"/>
-      <c r="S44" s="24">
+      <c r="S44" s="5"/>
+      <c r="T44" s="24">
         <f t="shared" si="15"/>
         <v>7791840</v>
       </c>
-      <c r="T44" s="25">
+      <c r="U44" s="25">
         <f t="shared" si="16"/>
         <v>23808400</v>
       </c>
-      <c r="Y44" s="20"/>
       <c r="Z44" s="20"/>
       <c r="AA44" s="20"/>
       <c r="AB44" s="20"/>
@@ -2915,60 +3115,63 @@
       <c r="CI44" s="20"/>
       <c r="CJ44" s="20"/>
       <c r="CK44" s="20"/>
-    </row>
-    <row r="45" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="CL44" s="20"/>
+    </row>
+    <row r="45" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A45" s="17"/>
       <c r="B45" s="1">
         <v>22911</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5">
-        <f>$C6 * (B45*B11)</f>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5">
+        <f>$D6 * (B45*B11)</f>
         <v>2749320</v>
       </c>
-      <c r="F45" s="5"/>
       <c r="G45" s="5"/>
-      <c r="H45" s="5">
-        <f>$M6 * (B45*B11)</f>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5">
+        <f>$N6 * (B45*B11)</f>
         <v>1374660</v>
       </c>
-      <c r="I45" s="24">
-        <f>SUM(D45:H45)</f>
+      <c r="J45" s="24">
+        <f>SUM(E45:I45)</f>
         <v>4123980</v>
       </c>
-      <c r="J45" s="5">
-        <f>$D6 * (B45*B12)</f>
+      <c r="K45" s="5">
+        <f>$E6 * (B45*B12)</f>
         <v>916440</v>
       </c>
-      <c r="K45" s="5"/>
       <c r="L45" s="5"/>
-      <c r="M45" s="24">
-        <f>SUM(J45:L45)</f>
+      <c r="M45" s="5"/>
+      <c r="N45" s="24">
+        <f>SUM(K45:M45)</f>
         <v>916440</v>
       </c>
-      <c r="N45" s="5">
+      <c r="O45" s="5">
         <f>$A6 * (B45*B13)</f>
         <v>5498640</v>
       </c>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5">
-        <f>$F6 * (B45*B13)</f>
-        <v>6964944</v>
-      </c>
-      <c r="Q45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5">
+        <f>$G6 * (B45*B13)</f>
+        <v>6415080</v>
+      </c>
       <c r="R45" s="5"/>
-      <c r="S45" s="24">
-        <f>SUM(N45:R45)</f>
-        <v>12463584</v>
-      </c>
-      <c r="T45" s="25">
+      <c r="S45" s="5"/>
+      <c r="T45" s="24">
+        <f>SUM(O45:S45)</f>
+        <v>11913720</v>
+      </c>
+      <c r="U45" s="25">
         <f t="shared" si="16"/>
-        <v>17504004</v>
-      </c>
-      <c r="Y45" s="20"/>
+        <v>16954140</v>
+      </c>
       <c r="Z45" s="20"/>
       <c r="AA45" s="20"/>
       <c r="AB45" s="20"/>
@@ -3033,60 +3236,63 @@
       <c r="CI45" s="20"/>
       <c r="CJ45" s="20"/>
       <c r="CK45" s="20"/>
-    </row>
-    <row r="46" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="CL45" s="20"/>
+    </row>
+    <row r="46" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A46" s="17"/>
       <c r="B46" s="1">
         <v>24191</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D46" s="5">
+      <c r="E46" s="5">
         <f>$B6 * (B46*B11)</f>
         <v>17417520</v>
       </c>
-      <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
-      <c r="H46" s="5">
-        <f>$M6 * (B46*B11)</f>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5">
+        <f>$N6 * (B46*B11)</f>
         <v>1451460</v>
       </c>
-      <c r="I46" s="24">
+      <c r="J46" s="24">
         <f t="shared" si="13"/>
         <v>18868980</v>
       </c>
-      <c r="J46" s="5">
-        <f>$D6 * (B46*B12)</f>
+      <c r="K46" s="5">
+        <f>$E6 * (B46*B12)</f>
         <v>967640</v>
       </c>
-      <c r="K46" s="5">
-        <f>$I6 * (B46*B12)</f>
+      <c r="L46" s="5">
+        <f>$J6 * (B46*B12)</f>
         <v>9676400</v>
       </c>
-      <c r="L46" s="5"/>
-      <c r="M46" s="24">
+      <c r="M46" s="5"/>
+      <c r="N46" s="24">
         <f t="shared" si="14"/>
         <v>10644040</v>
       </c>
-      <c r="N46" s="5"/>
       <c r="O46" s="5"/>
       <c r="P46" s="5"/>
-      <c r="Q46" s="5">
-        <f>$G6 * (B46*B13)</f>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5">
+        <f>$H6 * (B46*B13)</f>
         <v>10644040</v>
       </c>
-      <c r="R46" s="5"/>
-      <c r="S46" s="24">
+      <c r="S46" s="5"/>
+      <c r="T46" s="24">
         <f t="shared" si="15"/>
         <v>10644040</v>
       </c>
-      <c r="T46" s="25">
+      <c r="U46" s="25">
         <f t="shared" si="16"/>
         <v>40157060</v>
       </c>
-      <c r="Y46" s="20"/>
       <c r="Z46" s="20"/>
       <c r="AA46" s="20"/>
       <c r="AB46" s="20"/>
@@ -3151,57 +3357,60 @@
       <c r="CI46" s="20"/>
       <c r="CJ46" s="20"/>
       <c r="CK46" s="20"/>
-    </row>
-    <row r="47" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="CL46" s="20"/>
+    </row>
+    <row r="47" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A47" s="17"/>
       <c r="B47" s="1">
         <v>25412</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
-      <c r="H47" s="5">
-        <f>$M6 * (B47*B11)</f>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5">
+        <f>$N6 * (B47*B11)</f>
         <v>1524720</v>
       </c>
-      <c r="I47" s="24">
+      <c r="J47" s="24">
         <f t="shared" si="13"/>
         <v>1524720</v>
       </c>
-      <c r="J47" s="5">
-        <f>$D6 * (B47*B12)</f>
+      <c r="K47" s="5">
+        <f>$E6 * (B47*B12)</f>
         <v>1016480</v>
       </c>
-      <c r="K47" s="5"/>
       <c r="L47" s="5"/>
-      <c r="M47" s="24">
+      <c r="M47" s="5"/>
+      <c r="N47" s="24">
         <f t="shared" si="14"/>
         <v>1016480</v>
       </c>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5">
-        <f>$E6 * (B47*B13)</f>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5">
+        <f>$F6 * (B47*B13)</f>
         <v>9148320.0000000019</v>
       </c>
-      <c r="P47" s="5"/>
       <c r="Q47" s="5"/>
-      <c r="R47" s="5">
-        <f>$H6 * (B47*B13)</f>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5">
+        <f>$I6 * (B47*B13)</f>
         <v>3049440.0000000005</v>
       </c>
-      <c r="S47" s="24">
+      <c r="T47" s="24">
         <f t="shared" si="15"/>
         <v>12197760.000000002</v>
       </c>
-      <c r="T47" s="25">
+      <c r="U47" s="25">
         <f t="shared" si="16"/>
         <v>14738960.000000002</v>
       </c>
-      <c r="U47" s="20"/>
       <c r="V47" s="20"/>
       <c r="W47" s="20"/>
       <c r="X47" s="20"/>
@@ -3270,8 +3479,9 @@
       <c r="CI47" s="20"/>
       <c r="CJ47" s="20"/>
       <c r="CK47" s="20"/>
-    </row>
-    <row r="48" spans="1:89" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="CL47" s="20"/>
+    </row>
+    <row r="48" spans="1:90" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A48" s="18" t="s">
         <v>41</v>
       </c>
@@ -3279,75 +3489,75 @@
         <f>SUM(B41:B47)</f>
         <v>206205</v>
       </c>
-      <c r="D48" s="24">
-        <f t="shared" ref="D48:N48" si="17">SUM(D41:D47)</f>
+      <c r="C48" s="31"/>
+      <c r="E48" s="24">
+        <f t="shared" ref="E48:O48" si="17">SUM(E41:E47)</f>
         <v>41543280</v>
       </c>
-      <c r="E48" s="24">
+      <c r="F48" s="24">
         <f t="shared" si="17"/>
         <v>5346600</v>
       </c>
-      <c r="F48" s="24">
+      <c r="G48" s="24">
         <f t="shared" si="17"/>
         <v>9553895.9999999981</v>
       </c>
-      <c r="G48" s="24">
+      <c r="H48" s="24">
         <f t="shared" si="17"/>
         <v>2597280</v>
       </c>
-      <c r="H48" s="24">
+      <c r="I48" s="24">
         <f t="shared" si="17"/>
         <v>12372300</v>
       </c>
-      <c r="I48" s="24">
+      <c r="J48" s="24">
         <f t="shared" si="17"/>
         <v>71413356</v>
       </c>
-      <c r="J48" s="24">
+      <c r="K48" s="24">
         <f t="shared" si="17"/>
         <v>8248200</v>
       </c>
-      <c r="K48" s="24">
+      <c r="L48" s="24">
         <f t="shared" si="17"/>
         <v>18334000</v>
       </c>
-      <c r="L48" s="24">
+      <c r="M48" s="24">
         <f t="shared" si="17"/>
         <v>4523580</v>
       </c>
-      <c r="M48" s="24">
+      <c r="N48" s="24">
         <f t="shared" si="17"/>
         <v>31105780</v>
       </c>
-      <c r="N48" s="24">
+      <c r="O48" s="24">
         <f t="shared" si="17"/>
         <v>5498640</v>
       </c>
-      <c r="O48" s="24">
-        <f t="shared" ref="O48:R48" si="18">SUM(O41:O47)</f>
+      <c r="P48" s="24">
+        <f t="shared" ref="P48:S48" si="18">SUM(P41:P47)</f>
         <v>42031080</v>
       </c>
-      <c r="P48" s="24">
-        <f>SUM(P41:P47)</f>
-        <v>6964944</v>
-      </c>
       <c r="Q48" s="24">
+        <f>SUM(Q41:Q47)</f>
+        <v>6415080</v>
+      </c>
+      <c r="R48" s="24">
         <f t="shared" si="18"/>
         <v>25387560</v>
       </c>
-      <c r="R48" s="24">
+      <c r="S48" s="24">
         <f t="shared" si="18"/>
         <v>16495080</v>
       </c>
-      <c r="S48" s="24">
-        <f>SUM(S41:S47)</f>
-        <v>96377304</v>
-      </c>
-      <c r="T48" s="25">
+      <c r="T48" s="24">
         <f>SUM(T41:T47)</f>
-        <v>198896440</v>
-      </c>
-      <c r="U48" s="20"/>
+        <v>95827440</v>
+      </c>
+      <c r="U48" s="25">
+        <f>SUM(U41:U47)</f>
+        <v>198346576</v>
+      </c>
       <c r="V48" s="20"/>
       <c r="W48" s="20"/>
       <c r="X48" s="20"/>
@@ -3416,8 +3626,9 @@
       <c r="CI48" s="20"/>
       <c r="CJ48" s="20"/>
       <c r="CK48" s="20"/>
-    </row>
-    <row r="49" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="CL48" s="20"/>
+    </row>
+    <row r="49" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A49" s="17">
         <v>2015</v>
       </c>
@@ -3425,47 +3636,49 @@
         <v>40453</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
-      <c r="H49" s="5">
-        <f>$M6 * (B49*B11)</f>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5">
+        <f>$N6 * (B49*B11)</f>
         <v>2427180</v>
       </c>
-      <c r="I49" s="24">
-        <f t="shared" ref="I49:I55" si="19">SUM(D49:H49)</f>
+      <c r="J49" s="24">
+        <f t="shared" ref="J49:J55" si="19">SUM(E49:I49)</f>
         <v>2427180</v>
       </c>
-      <c r="J49" s="5">
-        <f>$D6 * (B49*B12)</f>
+      <c r="K49" s="5">
+        <f>$E6 * (B49*B12)</f>
         <v>1618120</v>
       </c>
-      <c r="K49" s="5"/>
       <c r="L49" s="5"/>
-      <c r="M49" s="24">
-        <f>SUM(J49:L49)</f>
+      <c r="M49" s="5"/>
+      <c r="N49" s="24">
+        <f>SUM(K49:M49)</f>
         <v>1618120</v>
       </c>
-      <c r="N49" s="5"/>
       <c r="O49" s="5"/>
-      <c r="P49" s="5">
-        <f>$F6 * (B49*B13)</f>
-        <v>12297712</v>
-      </c>
-      <c r="Q49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5">
+        <f>$G6 * (B49*B13)</f>
+        <v>11326840</v>
+      </c>
       <c r="R49" s="5"/>
-      <c r="S49" s="24">
-        <f>SUM(N49:R49)</f>
-        <v>12297712</v>
-      </c>
-      <c r="T49" s="25">
-        <f>SUM(I49+M49+S49)</f>
-        <v>16343012</v>
-      </c>
-      <c r="U49" s="20"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="24">
+        <f>SUM(O49:S49)</f>
+        <v>11326840</v>
+      </c>
+      <c r="U49" s="25">
+        <f>SUM(J49+N49+T49)</f>
+        <v>15372140</v>
+      </c>
       <c r="V49" s="20"/>
       <c r="W49" s="20"/>
       <c r="X49" s="20"/>
@@ -3534,63 +3747,66 @@
       <c r="CI49" s="20"/>
       <c r="CJ49" s="20"/>
       <c r="CK49" s="20"/>
-    </row>
-    <row r="50" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="CL49" s="20"/>
+    </row>
+    <row r="50" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A50" s="1"/>
       <c r="B50" s="1">
         <v>34008</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
-      <c r="H50" s="5">
-        <f>$M6 * (B50*B11)</f>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5">
+        <f>$N6 * (B50*B11)</f>
         <v>2040480</v>
       </c>
-      <c r="I50" s="24">
+      <c r="J50" s="24">
         <f t="shared" si="19"/>
         <v>2040480</v>
       </c>
-      <c r="J50" s="5">
-        <f>$D6 * (B50*B12)</f>
+      <c r="K50" s="5">
+        <f>$E6 * (B50*B12)</f>
         <v>1360320</v>
       </c>
-      <c r="K50" s="5">
-        <f>$I6 * (B50*B12)</f>
+      <c r="L50" s="5">
+        <f>$J6 * (B50*B12)</f>
         <v>13603200</v>
       </c>
-      <c r="L50" s="5"/>
-      <c r="M50" s="24">
-        <f t="shared" ref="M50:M55" si="20">SUM(J50:L50)</f>
+      <c r="M50" s="5"/>
+      <c r="N50" s="24">
+        <f t="shared" ref="N50:N55" si="20">SUM(K50:M50)</f>
         <v>14963520</v>
       </c>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5">
-        <f>$E6 * (B50*B13)</f>
-        <v>12242880</v>
-      </c>
+      <c r="O50" s="5"/>
       <c r="P50" s="5">
         <f>$F6 * (B50*B13)</f>
-        <v>10338432</v>
-      </c>
-      <c r="Q50" s="5"/>
-      <c r="R50" s="5">
-        <f>$J6 * (B50*B12)</f>
+        <v>12242880</v>
+      </c>
+      <c r="Q50" s="5">
+        <f>$G6 * (B50*B13)</f>
+        <v>9522240</v>
+      </c>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5">
+        <f>$K6 * (B50*B12)</f>
         <v>4591080</v>
       </c>
-      <c r="S50" s="24">
-        <f t="shared" ref="S50:S55" si="21">SUM(N50:R50)</f>
-        <v>27172392</v>
-      </c>
-      <c r="T50" s="25">
-        <f t="shared" ref="T50:T55" si="22">SUM(I50+M50+S50)</f>
-        <v>44176392</v>
-      </c>
-      <c r="U50" s="20"/>
+      <c r="T50" s="24">
+        <f t="shared" ref="T50:T55" si="21">SUM(O50:S50)</f>
+        <v>26356200</v>
+      </c>
+      <c r="U50" s="25">
+        <f t="shared" ref="U50:U55" si="22">SUM(J50+N50+T50)</f>
+        <v>43360200</v>
+      </c>
       <c r="V50" s="20"/>
       <c r="W50" s="20"/>
       <c r="X50" s="20"/>
@@ -3659,63 +3875,66 @@
       <c r="CI50" s="20"/>
       <c r="CJ50" s="20"/>
       <c r="CK50" s="20"/>
-    </row>
-    <row r="51" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="CL50" s="20"/>
+    </row>
+    <row r="51" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A51" s="1"/>
       <c r="B51" s="1">
         <v>31395</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D51" s="5">
-        <f>$L6 * (B51*B11)</f>
+      <c r="E51" s="5">
+        <f>$M6 * (B51*B11)</f>
         <v>3767400</v>
       </c>
-      <c r="E51" s="5"/>
       <c r="F51" s="5"/>
-      <c r="G51" s="5">
-        <f>$L6 * (B51*B11)</f>
-        <v>3767400</v>
-      </c>
+      <c r="G51" s="5"/>
       <c r="H51" s="5">
         <f>$M6 * (B51*B11)</f>
+        <v>3767400</v>
+      </c>
+      <c r="I51" s="5">
+        <f>$N6 * (B51*B11)</f>
         <v>1883700</v>
       </c>
-      <c r="I51" s="24">
+      <c r="J51" s="24">
         <f t="shared" si="19"/>
         <v>9418500</v>
       </c>
-      <c r="J51" s="5">
-        <f>$D6 * (B51*B12)</f>
+      <c r="K51" s="5">
+        <f>$E6 * (B51*B12)</f>
         <v>1255800</v>
       </c>
-      <c r="K51" s="5"/>
       <c r="L51" s="5"/>
-      <c r="M51" s="24">
+      <c r="M51" s="5"/>
+      <c r="N51" s="24">
         <f t="shared" si="20"/>
         <v>1255800</v>
       </c>
-      <c r="N51" s="5">
+      <c r="O51" s="5">
         <f>$A6 * (B51*B13)</f>
         <v>7534800</v>
       </c>
-      <c r="O51" s="5"/>
       <c r="P51" s="5"/>
-      <c r="Q51" s="5">
-        <f>$G6 * (B51*B13)</f>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5">
+        <f>$H6 * (B51*B13)</f>
         <v>13813800</v>
       </c>
-      <c r="R51" s="5"/>
-      <c r="S51" s="24">
+      <c r="S51" s="5"/>
+      <c r="T51" s="24">
         <f t="shared" si="21"/>
         <v>21348600</v>
       </c>
-      <c r="T51" s="25">
+      <c r="U51" s="25">
         <f t="shared" si="22"/>
         <v>32022900</v>
       </c>
-      <c r="U51" s="20"/>
       <c r="V51" s="20"/>
       <c r="W51" s="20"/>
       <c r="X51" s="20"/>
@@ -3784,66 +4003,69 @@
       <c r="CI51" s="20"/>
       <c r="CJ51" s="20"/>
       <c r="CK51" s="20"/>
-    </row>
-    <row r="52" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="CL51" s="20"/>
+    </row>
+    <row r="52" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A52" s="1"/>
       <c r="B52" s="1">
         <v>21069</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5">
-        <f>$C6 * (B52*B11)</f>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5">
+        <f>$D6 * (B52*B11)</f>
         <v>2528280</v>
       </c>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5">
-        <f>$L6 * (B52*B11)</f>
-        <v>2528280</v>
-      </c>
+      <c r="G52" s="5"/>
       <c r="H52" s="5">
         <f>$M6 * (B52*B11)</f>
+        <v>2528280</v>
+      </c>
+      <c r="I52" s="5">
+        <f>$N6 * (B52*B11)</f>
         <v>1264140</v>
       </c>
-      <c r="I52" s="24">
+      <c r="J52" s="24">
         <f t="shared" si="19"/>
         <v>6320700</v>
       </c>
-      <c r="J52" s="5">
-        <f>$D6 * (B52*B12)</f>
+      <c r="K52" s="5">
+        <f>$E6 * (B52*B12)</f>
         <v>842760</v>
       </c>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5">
-        <f>$J6 * (B52*B12)</f>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5">
+        <f>$K6 * (B52*B12)</f>
         <v>2844315</v>
       </c>
-      <c r="M52" s="24">
+      <c r="N52" s="24">
         <f t="shared" si="20"/>
         <v>3687075</v>
       </c>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5">
-        <f>$E6 * (B52*B13)</f>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5">
+        <f>$F6 * (B52*B13)</f>
         <v>7584840</v>
       </c>
-      <c r="P52" s="5"/>
-      <c r="Q52" s="5">
-        <f>$G6 * (B52*B13)</f>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5">
+        <f>$H6 * (B52*B13)</f>
         <v>9270360</v>
       </c>
-      <c r="R52" s="5"/>
-      <c r="S52" s="24">
+      <c r="S52" s="5"/>
+      <c r="T52" s="24">
         <f t="shared" si="21"/>
         <v>16855200</v>
       </c>
-      <c r="T52" s="25">
+      <c r="U52" s="25">
         <f t="shared" si="22"/>
         <v>26862975</v>
       </c>
-      <c r="U52" s="20"/>
       <c r="V52" s="20"/>
       <c r="W52" s="20"/>
       <c r="X52" s="20"/>
@@ -3912,57 +4134,60 @@
       <c r="CI52" s="20"/>
       <c r="CJ52" s="20"/>
       <c r="CK52" s="20"/>
-    </row>
-    <row r="53" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="CL52" s="20"/>
+    </row>
+    <row r="53" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A53" s="17"/>
       <c r="B53" s="1">
         <v>23049</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D53" s="5"/>
       <c r="E53" s="5"/>
-      <c r="F53" s="5">
-        <f>$C6 * (B53*B11)</f>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5">
+        <f>$D6 * (B53*B11)</f>
         <v>2765880</v>
       </c>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5">
-        <f>$M6 * (B53*B11)</f>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5">
+        <f>$N6 * (B53*B11)</f>
         <v>1382940</v>
       </c>
-      <c r="I53" s="24">
+      <c r="J53" s="24">
         <f t="shared" si="19"/>
         <v>4148820</v>
       </c>
-      <c r="J53" s="5">
-        <f>$D6 * (B53*B12)</f>
+      <c r="K53" s="5">
+        <f>$E6 * (B53*B12)</f>
         <v>921960</v>
       </c>
-      <c r="K53" s="5">
-        <f>$I6 * (B53*B12)</f>
+      <c r="L53" s="5">
+        <f>$J6 * (B53*B12)</f>
         <v>9219600</v>
       </c>
-      <c r="L53" s="5"/>
-      <c r="M53" s="24">
+      <c r="M53" s="5"/>
+      <c r="N53" s="24">
         <f t="shared" si="20"/>
         <v>10141560</v>
       </c>
-      <c r="N53" s="5"/>
       <c r="O53" s="5"/>
       <c r="P53" s="5"/>
       <c r="Q53" s="5"/>
       <c r="R53" s="5"/>
-      <c r="S53" s="24">
+      <c r="S53" s="5"/>
+      <c r="T53" s="24">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="T53" s="25">
+      <c r="U53" s="25">
         <f t="shared" si="22"/>
         <v>14290380</v>
       </c>
-      <c r="U53" s="20"/>
       <c r="V53" s="20"/>
       <c r="W53" s="20"/>
       <c r="X53" s="20"/>
@@ -4031,69 +4256,72 @@
       <c r="CI53" s="20"/>
       <c r="CJ53" s="20"/>
       <c r="CK53" s="20"/>
-    </row>
-    <row r="54" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="CL53" s="20"/>
+    </row>
+    <row r="54" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A54" s="17"/>
       <c r="B54" s="1">
         <v>22879</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D54" s="5">
-        <f>$L6 * (B54*B11)</f>
+      <c r="E54" s="5">
+        <f>$M6 * (B54*B11)</f>
         <v>2745480</v>
       </c>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5">
-        <f>$C6 * (B54*B11)</f>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5">
+        <f>$D6 * (B54*B11)</f>
         <v>2745480</v>
       </c>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5">
-        <f>$M6 * (B54*B11)</f>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5">
+        <f>$N6 * (B54*B11)</f>
         <v>1372740</v>
       </c>
-      <c r="I54" s="24">
+      <c r="J54" s="24">
         <f t="shared" si="19"/>
         <v>6863700</v>
       </c>
-      <c r="J54" s="5">
-        <f>$D6 * (B54*B12)</f>
+      <c r="K54" s="5">
+        <f>$E6 * (B54*B12)</f>
         <v>915160</v>
       </c>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5">
-        <f>$J6 * (B54*B12)</f>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5">
+        <f>$K6 * (B54*B12)</f>
         <v>3088665</v>
       </c>
-      <c r="M54" s="24">
+      <c r="N54" s="24">
         <f t="shared" si="20"/>
         <v>4003825</v>
       </c>
-      <c r="N54" s="5">
+      <c r="O54" s="5">
         <f>$A6 * (B54*B13)</f>
         <v>5490960</v>
       </c>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5">
-        <f>$F6 * (B54*B13)</f>
-        <v>6955216</v>
-      </c>
-      <c r="Q54" s="5"/>
-      <c r="R54" s="5">
-        <f>$H6 * (B54*B13)</f>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5">
+        <f>$G6 * (B54*B13)</f>
+        <v>6406120</v>
+      </c>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5">
+        <f>$I6 * (B54*B13)</f>
         <v>2745480</v>
       </c>
-      <c r="S54" s="24">
+      <c r="T54" s="24">
         <f t="shared" si="21"/>
-        <v>15191656</v>
-      </c>
-      <c r="T54" s="25">
+        <v>14642560</v>
+      </c>
+      <c r="U54" s="25">
         <f t="shared" si="22"/>
-        <v>26059181</v>
-      </c>
-      <c r="U54" s="20"/>
+        <v>25510085</v>
+      </c>
       <c r="V54" s="20"/>
       <c r="W54" s="20"/>
       <c r="X54" s="20"/>
@@ -4162,57 +4390,60 @@
       <c r="CI54" s="20"/>
       <c r="CJ54" s="20"/>
       <c r="CK54" s="20"/>
-    </row>
-    <row r="55" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="CL54" s="20"/>
+    </row>
+    <row r="55" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A55" s="17"/>
       <c r="B55" s="1">
         <v>23515</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5">
-        <f>$C6 * (B55*B11)</f>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5">
+        <f>$D6 * (B55*B11)</f>
         <v>2821800</v>
       </c>
-      <c r="F55" s="5"/>
       <c r="G55" s="5"/>
-      <c r="H55" s="5">
-        <f>$M6 * (B55*B11)</f>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5">
+        <f>$N6 * (B55*B11)</f>
         <v>1410900</v>
       </c>
-      <c r="I55" s="24">
+      <c r="J55" s="24">
         <f t="shared" si="19"/>
         <v>4232700</v>
       </c>
-      <c r="J55" s="5">
-        <f>$D6 * (B55*B12)</f>
+      <c r="K55" s="5">
+        <f>$E6 * (B55*B12)</f>
         <v>940600</v>
       </c>
-      <c r="K55" s="5"/>
       <c r="L55" s="5"/>
-      <c r="M55" s="24">
+      <c r="M55" s="5"/>
+      <c r="N55" s="24">
         <f t="shared" si="20"/>
         <v>940600</v>
       </c>
-      <c r="N55" s="5"/>
       <c r="O55" s="5"/>
-      <c r="P55" s="5">
-        <f>$F6 * (B55*B13)</f>
-        <v>7148560</v>
-      </c>
-      <c r="Q55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5">
+        <f>$G6 * (B55*B13)</f>
+        <v>6584200</v>
+      </c>
       <c r="R55" s="5"/>
-      <c r="S55" s="24">
+      <c r="S55" s="5"/>
+      <c r="T55" s="24">
         <f t="shared" si="21"/>
-        <v>7148560</v>
-      </c>
-      <c r="T55" s="25">
+        <v>6584200</v>
+      </c>
+      <c r="U55" s="25">
         <f t="shared" si="22"/>
-        <v>12321860</v>
-      </c>
-      <c r="U55" s="20"/>
+        <v>11757500</v>
+      </c>
       <c r="V55" s="20"/>
       <c r="W55" s="20"/>
       <c r="X55" s="20"/>
@@ -4281,8 +4512,9 @@
       <c r="CI55" s="20"/>
       <c r="CJ55" s="20"/>
       <c r="CK55" s="20"/>
-    </row>
-    <row r="56" spans="1:89" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="CL55" s="20"/>
+    </row>
+    <row r="56" spans="1:90" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A56" s="18" t="s">
         <v>40</v>
       </c>
@@ -4290,75 +4522,75 @@
         <f>SUM(B49:B55)</f>
         <v>196368</v>
       </c>
-      <c r="D56" s="24">
-        <f>SUM(D49:D55)</f>
+      <c r="C56" s="32"/>
+      <c r="E56" s="24">
+        <f>SUM(E49:E55)</f>
         <v>6512880</v>
       </c>
-      <c r="E56" s="24">
-        <f t="shared" ref="E56:G56" si="23">SUM(E49:E55)</f>
+      <c r="F56" s="24">
+        <f t="shared" ref="F56:H56" si="23">SUM(F49:F55)</f>
         <v>5350080</v>
       </c>
-      <c r="F56" s="24">
+      <c r="G56" s="24">
         <f t="shared" si="23"/>
         <v>5511360</v>
       </c>
-      <c r="G56" s="24">
+      <c r="H56" s="24">
         <f t="shared" si="23"/>
         <v>6295680</v>
       </c>
-      <c r="H56" s="24">
-        <f t="shared" ref="H56:N56" si="24">SUM(H49:H55)</f>
+      <c r="I56" s="24">
+        <f t="shared" ref="I56:O56" si="24">SUM(I49:I55)</f>
         <v>11782080</v>
       </c>
-      <c r="I56" s="24">
+      <c r="J56" s="24">
         <f t="shared" si="24"/>
         <v>35452080</v>
       </c>
-      <c r="J56" s="24">
+      <c r="K56" s="24">
         <f t="shared" si="24"/>
         <v>7854720</v>
       </c>
-      <c r="K56" s="24">
+      <c r="L56" s="24">
         <f t="shared" si="24"/>
         <v>22822800</v>
       </c>
-      <c r="L56" s="24">
+      <c r="M56" s="24">
         <f t="shared" si="24"/>
         <v>5932980</v>
       </c>
-      <c r="M56" s="24">
+      <c r="N56" s="24">
         <f t="shared" si="24"/>
         <v>36610500</v>
       </c>
-      <c r="N56" s="24">
+      <c r="O56" s="24">
         <f t="shared" si="24"/>
         <v>13025760</v>
       </c>
-      <c r="O56" s="24">
-        <f t="shared" ref="O56:R56" si="25">SUM(O49:O55)</f>
+      <c r="P56" s="24">
+        <f t="shared" ref="P56:S56" si="25">SUM(P49:P55)</f>
         <v>19827720</v>
-      </c>
-      <c r="P56" s="24">
-        <f t="shared" si="25"/>
-        <v>36739920</v>
       </c>
       <c r="Q56" s="24">
         <f t="shared" si="25"/>
-        <v>23084160</v>
+        <v>33839400</v>
       </c>
       <c r="R56" s="24">
         <f t="shared" si="25"/>
+        <v>23084160</v>
+      </c>
+      <c r="S56" s="24">
+        <f t="shared" si="25"/>
         <v>7336560</v>
       </c>
-      <c r="S56" s="24">
-        <f>SUM(S49:S55)</f>
-        <v>100014120</v>
-      </c>
-      <c r="T56" s="25">
-        <f>SUM(I56+M56+S56)</f>
-        <v>172076700</v>
-      </c>
-      <c r="U56" s="20"/>
+      <c r="T56" s="24">
+        <f>SUM(T49:T55)</f>
+        <v>97113600</v>
+      </c>
+      <c r="U56" s="25">
+        <f>SUM(J56+N56+T56)</f>
+        <v>169176180</v>
+      </c>
       <c r="V56" s="20"/>
       <c r="W56" s="20"/>
       <c r="X56" s="20"/>
@@ -4427,8 +4659,9 @@
       <c r="CI56" s="20"/>
       <c r="CJ56" s="20"/>
       <c r="CK56" s="20"/>
-    </row>
-    <row r="57" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="CL56" s="20"/>
+    </row>
+    <row r="57" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A57" s="19" t="s">
         <v>10</v>
       </c>
@@ -4436,76 +4669,76 @@
         <f>B24+B32+B40+B48+B56</f>
         <v>1058515</v>
       </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="25">
-        <f>SUM(D24+D32+D40+D48+D56)</f>
-        <v>185403120</v>
-      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="3"/>
       <c r="E57" s="25">
         <f>SUM(E24+E32+E40+E48+E56)</f>
-        <v>39594840</v>
+        <v>185403120</v>
       </c>
       <c r="F57" s="25">
         <f>SUM(F24+F32+F40+F48+F56)</f>
-        <v>50545272</v>
+        <v>39594840</v>
       </c>
       <c r="G57" s="25">
         <f>SUM(G24+G32+G40+G48+G56)</f>
-        <v>32157120</v>
+        <v>50545272</v>
       </c>
       <c r="H57" s="25">
         <f>SUM(H24+H32+H40+H48+H56)</f>
+        <v>32157120</v>
+      </c>
+      <c r="I57" s="25">
+        <f>SUM(I24+I32+I40+I48+I56)</f>
         <v>54539460</v>
       </c>
-      <c r="I57" s="25">
-        <f>SUM(I40+I32+I24+I48+I56)</f>
+      <c r="J57" s="25">
+        <f>SUM(J40+J32+J24+J48+J56)</f>
         <v>362239812</v>
-      </c>
-      <c r="J57" s="25">
-        <f>J24+J32+J40+J48+J56</f>
-        <v>29041560</v>
       </c>
       <c r="K57" s="25">
         <f>K24+K32+K40+K48+K56</f>
-        <v>207873200</v>
+        <v>29041560</v>
       </c>
       <c r="L57" s="25">
         <f>L24+L32+L40+L48+L56</f>
-        <v>36959625</v>
+        <v>207873200</v>
       </c>
       <c r="M57" s="25">
         <f>M24+M32+M40+M48+M56</f>
+        <v>36959625</v>
+      </c>
+      <c r="N57" s="25">
+        <f>N24+N32+N40+N48+N56</f>
         <v>273874385</v>
       </c>
-      <c r="N57" s="25">
-        <f>SUM(N24+N32+N40+N48+N56)</f>
+      <c r="O57" s="25">
+        <f>SUM(O24+O32+O40+O48+O56)</f>
         <v>74200320</v>
       </c>
-      <c r="O57" s="25">
-        <f t="shared" ref="O57:R57" si="26">SUM(O24+O32+O40+O48+O56)</f>
+      <c r="P57" s="25">
+        <f t="shared" ref="P57:S57" si="26">SUM(P24+P32+P40+P48+P56)</f>
         <v>151408800</v>
-      </c>
-      <c r="P57" s="25">
-        <f t="shared" si="26"/>
-        <v>100816128</v>
       </c>
       <c r="Q57" s="25">
         <f t="shared" si="26"/>
-        <v>122429560</v>
+        <v>92856960</v>
       </c>
       <c r="R57" s="25">
         <f t="shared" si="26"/>
+        <v>122429560</v>
+      </c>
+      <c r="S57" s="25">
+        <f t="shared" si="26"/>
         <v>71235240</v>
       </c>
-      <c r="S57" s="25">
-        <f>SUM(S24+S32+S40+S48+S56)</f>
-        <v>520090048</v>
-      </c>
-      <c r="T57" s="30">
-        <f>SUM(T40+T32+T24+T48+T56)</f>
-        <v>1022715005</v>
-      </c>
-      <c r="U57" s="20"/>
+      <c r="T57" s="25">
+        <f>SUM(T24+T32+T40+T48+T56)</f>
+        <v>512130880</v>
+      </c>
+      <c r="U57" s="30">
+        <f>SUM(U40+U32+U24+U48+U56)</f>
+        <v>1016951957</v>
+      </c>
       <c r="V57" s="20"/>
       <c r="W57" s="20"/>
       <c r="X57" s="20"/>
@@ -4574,9 +4807,9 @@
       <c r="CI57" s="20"/>
       <c r="CJ57" s="20"/>
       <c r="CK57" s="20"/>
-    </row>
-    <row r="58" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="U58" s="20"/>
+      <c r="CL57" s="20"/>
+    </row>
+    <row r="58" spans="1:90" x14ac:dyDescent="0.45">
       <c r="V58" s="20"/>
       <c r="W58" s="20"/>
       <c r="X58" s="20"/>
@@ -4645,33 +4878,34 @@
       <c r="CI58" s="20"/>
       <c r="CJ58" s="20"/>
       <c r="CK58" s="20"/>
-    </row>
-    <row r="59" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="U59" s="20"/>
+      <c r="CL58" s="20"/>
+    </row>
+    <row r="59" spans="1:90" x14ac:dyDescent="0.45">
       <c r="V59" s="20"/>
       <c r="W59" s="20"/>
       <c r="X59" s="20"/>
       <c r="Y59" s="20"/>
-    </row>
-    <row r="60" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="Z59" s="20"/>
+    </row>
+    <row r="60" spans="1:90" x14ac:dyDescent="0.45">
       <c r="B60" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="61" spans="1:89" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:90" x14ac:dyDescent="0.45">
       <c r="B61" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="64" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="E64" s="5"/>
+    <row r="64" spans="1:90" x14ac:dyDescent="0.45">
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
-    </row>
-    <row r="66" spans="5:7" x14ac:dyDescent="0.45">
-      <c r="E66" s="5"/>
+      <c r="H64" s="5"/>
+    </row>
+    <row r="66" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Capstone Project/Monika/Repair Costs.xlsx
+++ b/Capstone Project/Monika/Repair Costs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mszuc\Desktop\Capstone-Project-Data-Modeling-and-PowerBI\Capstone Project\Monika\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565E2DA4-96C2-4B2F-BF2D-12F5D9968783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9722C6-8BED-4431-8E27-5C033100DF96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{ED117939-1D2E-4498-B130-96B64592D033}"/>
+    <workbookView xWindow="40920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ED117939-1D2E-4498-B130-96B64592D033}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -277,7 +277,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -763,11 +763,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6105DF2C-7430-48BF-A45E-C623D48AA4A1}">
   <dimension ref="A2:CL63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="30.86328125" customWidth="1"/>
     <col min="2" max="3" width="21.6640625" customWidth="1"/>
@@ -804,14 +804,14 @@
     <col min="37" max="37" width="18.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:25" ht="38.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:25" ht="38.25">
       <c r="A2" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:25" ht="18.600000000000001" customHeight="1">
       <c r="A3" s="8"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -829,7 +829,7 @@
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
     </row>
-    <row r="4" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:25" ht="18.600000000000001" customHeight="1">
       <c r="A4" s="11" t="s">
         <v>13</v>
       </c>
@@ -845,7 +845,7 @@
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
     </row>
-    <row r="5" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:25" ht="18.600000000000001" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>11</v>
       </c>
@@ -896,7 +896,7 @@
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
     </row>
-    <row r="6" spans="1:25" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:25" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A6" s="10">
         <v>600</v>
       </c>
@@ -947,7 +947,7 @@
       <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
     </row>
-    <row r="7" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:25" ht="18.600000000000001" customHeight="1">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -972,7 +972,7 @@
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
     </row>
-    <row r="8" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:25" ht="18.600000000000001" customHeight="1">
       <c r="A8" s="18" t="s">
         <v>33</v>
       </c>
@@ -1003,7 +1003,7 @@
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
     </row>
-    <row r="9" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:25" ht="18.600000000000001" customHeight="1">
       <c r="A9" s="11" t="s">
         <v>34</v>
       </c>
@@ -1030,7 +1030,7 @@
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
     </row>
-    <row r="10" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:25" ht="18" customHeight="1">
       <c r="A10" s="11" t="s">
         <v>35</v>
       </c>
@@ -1048,7 +1048,7 @@
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:25">
       <c r="A12" s="23"/>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
@@ -1077,7 +1077,7 @@
       <c r="T12" s="24"/>
       <c r="U12" s="25"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:25">
       <c r="A13" s="23" t="s">
         <v>28</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:25">
       <c r="A14" s="14">
         <v>2019</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>8794110</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:25">
       <c r="A15" s="14"/>
       <c r="B15" s="7">
         <v>38970</v>
@@ -1250,7 +1250,7 @@
         <v>9937350</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:25">
       <c r="A16" s="14"/>
       <c r="B16" s="7">
         <v>35825</v>
@@ -1303,7 +1303,7 @@
         <v>20420250</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:21">
       <c r="A17" s="14"/>
       <c r="B17" s="7">
         <v>24213</v>
@@ -1368,7 +1368,7 @@
         <v>19346187</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:21">
       <c r="A18" s="14"/>
       <c r="B18" s="7">
         <v>26345</v>
@@ -1427,7 +1427,7 @@
         <v>39122325</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:21">
       <c r="A19" s="14"/>
       <c r="B19" s="7">
         <v>25968</v>
@@ -1480,7 +1480,7 @@
         <v>12334800</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:21">
       <c r="A20" s="14"/>
       <c r="B20" s="7">
         <v>28322</v>
@@ -1539,7 +1539,7 @@
         <v>8921430</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:21">
       <c r="A21" s="15" t="s">
         <v>29</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>118876452</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:21">
       <c r="A22" s="14">
         <v>2018</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>13946310</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:21">
       <c r="A23" s="14"/>
       <c r="B23" s="7">
         <v>38253</v>
@@ -1729,7 +1729,7 @@
         <v>53133417</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:21">
       <c r="A24" s="14"/>
       <c r="B24" s="7">
         <v>35347</v>
@@ -1788,7 +1788,7 @@
         <v>63978070</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:21">
       <c r="A25" s="14"/>
       <c r="B25" s="7">
         <v>23254</v>
@@ -1847,7 +1847,7 @@
         <v>29979181</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:21">
       <c r="A26" s="14"/>
       <c r="B26" s="7">
         <v>25421</v>
@@ -1903,7 +1903,7 @@
         <v>20209695</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:21">
       <c r="A27" s="14"/>
       <c r="B27" s="7">
         <v>25180</v>
@@ -1953,7 +1953,7 @@
         <v>19640400</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:21">
       <c r="A28" s="14"/>
       <c r="B28" s="7">
         <v>27256</v>
@@ -2012,7 +2012,7 @@
         <v>57782720</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:21">
       <c r="A29" s="15" t="s">
         <v>31</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>258669793</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:21">
       <c r="A30" s="14">
         <v>2017</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>27218520</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:21">
       <c r="A31" s="14"/>
       <c r="B31" s="7">
         <v>37463</v>
@@ -2208,7 +2208,7 @@
         <v>85602955</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:21">
       <c r="A32" s="14"/>
       <c r="B32" s="7">
         <v>34774</v>
@@ -2267,7 +2267,7 @@
         <v>42076540</v>
       </c>
     </row>
-    <row r="33" spans="1:90" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:90">
       <c r="A33" s="14"/>
       <c r="B33" s="7">
         <v>22597</v>
@@ -2332,7 +2332,7 @@
         <v>53984233</v>
       </c>
     </row>
-    <row r="34" spans="1:90" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:90">
       <c r="A34" s="14"/>
       <c r="B34" s="7">
         <v>24520</v>
@@ -2388,7 +2388,7 @@
         <v>27339800</v>
       </c>
     </row>
-    <row r="35" spans="1:90" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:90">
       <c r="A35" s="14"/>
       <c r="B35" s="7">
         <v>23581</v>
@@ -2447,7 +2447,7 @@
         <v>44948150</v>
       </c>
     </row>
-    <row r="36" spans="1:90" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:90">
       <c r="A36" s="14"/>
       <c r="B36" s="7">
         <v>26077</v>
@@ -2503,7 +2503,7 @@
         <v>29571318</v>
       </c>
     </row>
-    <row r="37" spans="1:90" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:90">
       <c r="A37" s="15" t="s">
         <v>30</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>310741516</v>
       </c>
     </row>
-    <row r="38" spans="1:90" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:90">
       <c r="A38" s="14">
         <v>2016</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>26680500</v>
       </c>
     </row>
-    <row r="39" spans="1:90" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:90">
       <c r="A39" s="14"/>
       <c r="B39" s="7">
         <v>36189</v>
@@ -2755,7 +2755,7 @@
       <c r="CK39" s="17"/>
       <c r="CL39" s="17"/>
     </row>
-    <row r="40" spans="1:90" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:90">
       <c r="A40" s="14"/>
       <c r="B40" s="1">
         <v>33508</v>
@@ -2882,7 +2882,7 @@
       <c r="CK40" s="17"/>
       <c r="CL40" s="17"/>
     </row>
-    <row r="41" spans="1:90" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:90">
       <c r="A41" s="14"/>
       <c r="B41" s="1">
         <v>21644</v>
@@ -3006,7 +3006,7 @@
       <c r="CK41" s="17"/>
       <c r="CL41" s="17"/>
     </row>
-    <row r="42" spans="1:90" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:90">
       <c r="A42" s="14"/>
       <c r="B42" s="1">
         <v>22911</v>
@@ -3127,7 +3127,7 @@
       <c r="CK42" s="17"/>
       <c r="CL42" s="17"/>
     </row>
-    <row r="43" spans="1:90" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:90">
       <c r="A43" s="14"/>
       <c r="B43" s="1">
         <v>24191</v>
@@ -3248,7 +3248,7 @@
       <c r="CK43" s="17"/>
       <c r="CL43" s="17"/>
     </row>
-    <row r="44" spans="1:90" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:90">
       <c r="A44" s="14"/>
       <c r="B44" s="1">
         <v>25412</v>
@@ -3370,7 +3370,7 @@
       <c r="CK44" s="17"/>
       <c r="CL44" s="17"/>
     </row>
-    <row r="45" spans="1:90" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:90" s="2" customFormat="1">
       <c r="A45" s="15" t="s">
         <v>40</v>
       </c>
@@ -3517,7 +3517,7 @@
       <c r="CK45" s="17"/>
       <c r="CL45" s="17"/>
     </row>
-    <row r="46" spans="1:90" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:90">
       <c r="A46" s="14">
         <v>2015</v>
       </c>
@@ -3638,7 +3638,7 @@
       <c r="CK46" s="17"/>
       <c r="CL46" s="17"/>
     </row>
-    <row r="47" spans="1:90" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:90">
       <c r="A47" s="1"/>
       <c r="B47" s="1">
         <v>34008</v>
@@ -3766,7 +3766,7 @@
       <c r="CK47" s="17"/>
       <c r="CL47" s="17"/>
     </row>
-    <row r="48" spans="1:90" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:90">
       <c r="A48" s="1"/>
       <c r="B48" s="1">
         <v>31395</v>
@@ -3894,7 +3894,7 @@
       <c r="CK48" s="17"/>
       <c r="CL48" s="17"/>
     </row>
-    <row r="49" spans="1:90" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:90">
       <c r="A49" s="1"/>
       <c r="B49" s="1">
         <v>21069</v>
@@ -4025,7 +4025,7 @@
       <c r="CK49" s="17"/>
       <c r="CL49" s="17"/>
     </row>
-    <row r="50" spans="1:90" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:90">
       <c r="A50" s="14"/>
       <c r="B50" s="1">
         <v>23049</v>
@@ -4147,7 +4147,7 @@
       <c r="CK50" s="17"/>
       <c r="CL50" s="17"/>
     </row>
-    <row r="51" spans="1:90" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:90">
       <c r="A51" s="14"/>
       <c r="B51" s="1">
         <v>22879</v>
@@ -4281,7 +4281,7 @@
       <c r="CK51" s="17"/>
       <c r="CL51" s="17"/>
     </row>
-    <row r="52" spans="1:90" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:90">
       <c r="A52" s="14"/>
       <c r="B52" s="1">
         <v>23515</v>
@@ -4403,7 +4403,7 @@
       <c r="CK52" s="17"/>
       <c r="CL52" s="17"/>
     </row>
-    <row r="53" spans="1:90" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:90" s="2" customFormat="1">
       <c r="A53" s="15" t="s">
         <v>39</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>13025760</v>
       </c>
       <c r="P53" s="21">
-        <f t="shared" ref="P53:S53" si="25">SUM(P46:P52)</f>
+        <f t="shared" ref="P53:R53" si="25">SUM(P46:P52)</f>
         <v>19827720</v>
       </c>
       <c r="Q53" s="21">
@@ -4550,7 +4550,7 @@
       <c r="CK53" s="17"/>
       <c r="CL53" s="17"/>
     </row>
-    <row r="54" spans="1:90" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:90">
       <c r="A54" s="16" t="s">
         <v>10</v>
       </c>
@@ -4605,7 +4605,7 @@
         <v>74200320</v>
       </c>
       <c r="P54" s="22">
-        <f t="shared" ref="P54:S54" si="26">SUM(P21+P29+P37+P45+P53)</f>
+        <f t="shared" ref="P54:R54" si="26">SUM(P21+P29+P37+P45+P53)</f>
         <v>151408800</v>
       </c>
       <c r="Q54" s="22">
@@ -4698,7 +4698,7 @@
       <c r="CK54" s="17"/>
       <c r="CL54" s="17"/>
     </row>
-    <row r="55" spans="1:90" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:90">
       <c r="V55" s="17"/>
       <c r="W55" s="17"/>
       <c r="X55" s="17"/>
@@ -4769,29 +4769,29 @@
       <c r="CK55" s="17"/>
       <c r="CL55" s="17"/>
     </row>
-    <row r="56" spans="1:90" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:90">
       <c r="V56" s="17"/>
       <c r="W56" s="17"/>
       <c r="X56" s="17"/>
       <c r="Y56" s="17"/>
       <c r="Z56" s="17"/>
     </row>
-    <row r="57" spans="1:90" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:90">
       <c r="B57" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:90" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:90">
       <c r="B58" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="61" spans="1:90" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:90">
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
     </row>
-    <row r="63" spans="1:90" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:90">
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
